--- a/scenarios-examples/cement/data/upstream.xlsx
+++ b/scenarios-examples/cement/data/upstream.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/cement/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A41C12-EF55-864F-815E-A3483648C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE547CE-0C6F-1845-946F-782A8F9FAB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="25700" windowWidth="23600" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="up-emissions" sheetId="3" r:id="rId1"/>
@@ -760,18 +760,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -813,7 +807,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -848,7 +842,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -858,11 +851,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -876,21 +864,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1494,10 +1479,10 @@
   <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1508,17 +1493,17 @@
     <col min="4" max="4" width="10.1640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="9"/>
-    <col min="9" max="9" width="11.5" style="51"/>
-    <col min="10" max="10" width="11.83203125" style="21" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="11.5" style="21" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="43"/>
+    <col min="10" max="10" width="11.83203125" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" style="20" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="51"/>
+    <col min="16" max="16" width="11.5" style="43"/>
     <col min="17" max="17" width="11.5" style="5"/>
-    <col min="18" max="18" width="11.5" style="51"/>
+    <col min="18" max="18" width="11.5" style="43"/>
     <col min="20" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="51" customWidth="1"/>
+    <col min="24" max="24" width="21" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="48" x14ac:dyDescent="0.2">
@@ -1546,16 +1531,16 @@
       <c r="H1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1567,13 +1552,13 @@
       <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="44" t="s">
         <v>159</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="44" t="s">
         <v>116</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -1591,7 +1576,7 @@
       <c r="W1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="44" t="s">
         <v>17</v>
       </c>
       <c r="Y1" t="s">
@@ -1609,14 +1594,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="P2" s="37"/>
+      <c r="R2" s="37"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -1642,16 +1627,16 @@
         <v>48</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>49</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -1659,8 +1644,8 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="P3" s="37"/>
+      <c r="R3" s="37"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -1677,7 +1662,7 @@
       <c r="C4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="47">
         <f>SUM(E4:G4)</f>
         <v>5.0614320196999997E-3</v>
       </c>
@@ -1687,26 +1672,26 @@
       <c r="F4" s="9">
         <v>4.7102508999999999E-3</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="68">
         <v>3.2050997000000002E-6</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="40">
         <v>1.2499115468166301E-4</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>1.3200000000000001E-4</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="27">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="26">
         <f t="shared" ref="M4:M12" si="0">I4+D4</f>
         <v>5.1864231743816627E-3</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="26">
         <f>K4+F4</f>
         <v>4.7102508999999999E-3</v>
       </c>
-      <c r="P4" s="78">
+      <c r="P4" s="69">
         <f t="shared" ref="P4:P12" si="1">S4-M4</f>
         <v>4.7612244818337306E-5</v>
       </c>
@@ -1714,10 +1699,10 @@
         <f t="shared" ref="Q4:Q12" si="2">S4/D4</f>
         <v>1.0341016927281048</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="40">
         <v>4.9667312000000003E-3</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="68">
         <f>T4+U4+W4</f>
         <v>5.2340354192E-3</v>
       </c>
@@ -1730,10 +1715,10 @@
       <c r="V4" s="9">
         <v>-2.6730421999999999E-4</v>
       </c>
-      <c r="W4" s="77">
+      <c r="W4" s="68">
         <v>3.2247492E-6</v>
       </c>
-      <c r="X4" s="47"/>
+      <c r="X4" s="40"/>
     </row>
     <row r="5" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -1745,7 +1730,7 @@
       <c r="C5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="47">
         <f>SUM(E5:G5)</f>
         <v>1.1017378176999999E-2</v>
       </c>
@@ -1755,26 +1740,26 @@
       <c r="F5" s="9">
         <v>1.0852535999999999E-2</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="68">
         <v>1.0004696999999999E-5</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="40">
         <v>4.4611327121990769E-4</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>4.5399999999999998E-4</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="27">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="26">
         <f t="shared" si="0"/>
         <v>1.1463491448219907E-2</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="26">
         <f>K5+F5</f>
         <v>1.0852535999999999E-2</v>
       </c>
-      <c r="P5" s="78">
+      <c r="P5" s="69">
         <f t="shared" si="1"/>
         <v>1.0417870478009184E-4</v>
       </c>
@@ -1782,10 +1767,10 @@
         <f t="shared" si="2"/>
         <v>1.049947634288237</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="40">
         <v>1.1432640000000001E-2</v>
       </c>
-      <c r="S5" s="77">
+      <c r="S5" s="68">
         <f>T5+U5+W5</f>
         <v>1.1567670152999998E-2</v>
       </c>
@@ -1798,10 +1783,10 @@
       <c r="V5" s="9">
         <v>-1.3503106000000001E-4</v>
       </c>
-      <c r="W5" s="77">
+      <c r="W5" s="68">
         <v>1.0047302999999999E-5</v>
       </c>
-      <c r="X5" s="47"/>
+      <c r="X5" s="40"/>
     </row>
     <row r="6" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -1813,7 +1798,7 @@
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="47">
         <f t="shared" ref="D6:D12" si="3">SUM(E6:G6)</f>
         <v>2.5705506619999999E-2</v>
       </c>
@@ -1823,24 +1808,24 @@
       <c r="F6" s="9">
         <v>2.5552631999999999E-2</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="68">
         <v>1.743405E-5</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="40">
         <v>5.4034683758049892E-4</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="27">
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="26">
         <f t="shared" si="0"/>
         <v>2.6245853457580497E-2</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="26">
         <f>K6+F6</f>
         <v>2.5552631999999999E-2</v>
       </c>
-      <c r="P6" s="78">
+      <c r="P6" s="69">
         <f t="shared" si="1"/>
         <v>4.3809335941950162E-4</v>
       </c>
@@ -1848,10 +1833,10 @@
         <f t="shared" si="2"/>
         <v>1.0380634473174992</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="40">
         <v>2.6516087000000001E-2</v>
       </c>
-      <c r="S6" s="77">
+      <c r="S6" s="68">
         <f t="shared" ref="S6:S8" si="4">T6+U6+W6</f>
         <v>2.6683946816999999E-2</v>
       </c>
@@ -1864,10 +1849,10 @@
       <c r="V6" s="9">
         <v>-1.6786042000000001E-4</v>
       </c>
-      <c r="W6" s="77">
+      <c r="W6" s="68">
         <v>1.7569227000000002E-5</v>
       </c>
-      <c r="X6" s="47"/>
+      <c r="X6" s="40"/>
     </row>
     <row r="7" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -1879,7 +1864,7 @@
       <c r="C7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="47">
         <f t="shared" si="3"/>
         <v>4.8192447873999997E-3</v>
       </c>
@@ -1889,22 +1874,22 @@
       <c r="F7" s="9">
         <v>4.6249524999999996E-3</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="68">
         <v>2.1481574000000001E-6</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="40">
         <v>1.1351185083177982E-4</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>1.3899999999999999E-4</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <v>2.6000000000000001E-6</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="70">
         <v>5.2999999999999998E-8</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="26">
         <f t="shared" si="0"/>
         <v>4.9327566382317799E-3</v>
       </c>
@@ -1913,7 +1898,7 @@
         <f t="shared" ref="O7:O12" si="5">M7/D7</f>
         <v>1.0235538670143005</v>
       </c>
-      <c r="P7" s="78">
+      <c r="P7" s="69">
         <f t="shared" si="1"/>
         <v>1.1726603626822062E-4</v>
       </c>
@@ -1921,10 +1906,10 @@
         <f t="shared" si="2"/>
         <v>1.0478867327311063</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="40">
         <v>4.8905418000000003E-3</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="68">
         <f t="shared" si="4"/>
         <v>5.0500226745000005E-3</v>
       </c>
@@ -1937,10 +1922,10 @@
       <c r="V7" s="9">
         <v>-1.5948093000000001E-4</v>
       </c>
-      <c r="W7" s="77">
+      <c r="W7" s="68">
         <v>2.1605045000000001E-6</v>
       </c>
-      <c r="X7" s="47" t="s">
+      <c r="X7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="Y7" s="9" t="s">
@@ -1957,7 +1942,7 @@
       <c r="C8" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="47">
         <f t="shared" si="3"/>
         <v>6.0030210929000001E-3</v>
       </c>
@@ -1967,16 +1952,16 @@
       <c r="F8" s="9">
         <v>5.7858403000000001E-3</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="68">
         <v>4.3938928999999996E-6</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="40">
         <v>1.8102245451261179E-4</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="27">
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="26">
         <f t="shared" si="0"/>
         <v>6.1840435474126119E-3</v>
       </c>
@@ -1984,7 +1969,7 @@
         <f t="shared" si="5"/>
         <v>1.0301552254625115</v>
       </c>
-      <c r="P8" s="78">
+      <c r="P8" s="69">
         <f t="shared" si="1"/>
         <v>1.0781742428738871E-4</v>
       </c>
@@ -1992,10 +1977,10 @@
         <f t="shared" si="2"/>
         <v>1.0481157527734863</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="40">
         <v>6.0964527000000003E-3</v>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="68">
         <f t="shared" si="4"/>
         <v>6.2918609717000007E-3</v>
       </c>
@@ -2008,10 +1993,10 @@
       <c r="V8" s="9">
         <v>-1.9540827999999999E-4</v>
       </c>
-      <c r="W8" s="77">
+      <c r="W8" s="68">
         <v>4.4221816999999999E-6</v>
       </c>
-      <c r="X8" s="47" t="s">
+      <c r="X8" s="40" t="s">
         <v>22</v>
       </c>
       <c r="Y8" s="9" t="s">
@@ -2028,7 +2013,7 @@
       <c r="C9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="47">
         <f t="shared" si="3"/>
         <v>2.9493126541999999</v>
       </c>
@@ -2042,19 +2027,19 @@
         <v>2.4207742000000002E-3</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="47">
+      <c r="I9" s="40">
         <v>1.2502572350581007</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>3.9199999999999997E-5</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="26">
         <f t="shared" si="0"/>
         <v>4.1995698892581004</v>
       </c>
@@ -2063,7 +2048,7 @@
         <f t="shared" si="5"/>
         <v>1.4239147834251003</v>
       </c>
-      <c r="P9" s="78">
+      <c r="P9" s="69">
         <f t="shared" si="1"/>
         <v>0.11737444204189984</v>
       </c>
@@ -2071,10 +2056,10 @@
         <f t="shared" si="2"/>
         <v>1.4637120025753831</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="40">
         <v>0.26264258000000001</v>
       </c>
-      <c r="S9" s="77">
+      <c r="S9" s="68">
         <f>T9+U9+W9</f>
         <v>4.3169443313000002</v>
       </c>
@@ -2090,7 +2075,7 @@
       <c r="W9" s="9">
         <v>2.4687712999999999E-3</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="X9" s="40" t="s">
         <v>24</v>
       </c>
       <c r="Y9" s="9" t="s">
@@ -2107,7 +2092,7 @@
       <c r="C10" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="47">
         <f t="shared" si="3"/>
         <v>9.5543487870000006E-3</v>
       </c>
@@ -2117,16 +2102,16 @@
       <c r="F10" s="9">
         <v>9.2685022000000006E-3</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="68">
         <v>1.1131096999999999E-5</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="40">
         <v>3.8355434945926088E-4</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="27">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="26">
         <f t="shared" si="0"/>
         <v>9.937903136459262E-3</v>
       </c>
@@ -2134,7 +2119,7 @@
         <f t="shared" si="5"/>
         <v>1.0401444784997946</v>
       </c>
-      <c r="P10" s="78">
+      <c r="P10" s="69">
         <f t="shared" si="1"/>
         <v>7.947140454073881E-5</v>
       </c>
@@ -2142,10 +2127,10 @@
         <f t="shared" si="2"/>
         <v>1.0484623038495318</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="40">
         <v>9.7141837000000002E-3</v>
       </c>
-      <c r="S10" s="77">
+      <c r="S10" s="68">
         <f>T10+U10+W10</f>
         <v>1.0017374541000001E-2</v>
       </c>
@@ -2158,10 +2143,10 @@
       <c r="V10" s="9">
         <v>-3.0319081000000002E-4</v>
       </c>
-      <c r="W10" s="77">
+      <c r="W10" s="68">
         <v>1.1207211E-5</v>
       </c>
-      <c r="X10" s="47" t="s">
+      <c r="X10" s="40" t="s">
         <v>21</v>
       </c>
       <c r="Y10" s="9" t="s">
@@ -2178,7 +2163,7 @@
       <c r="C11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="47">
         <f t="shared" si="3"/>
         <v>0.94534718922999994</v>
       </c>
@@ -2191,13 +2176,13 @@
       <c r="G11" s="9">
         <v>6.6903123E-4</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="40">
         <v>1.4363132924689369E-2</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="27">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="26">
         <f t="shared" si="0"/>
         <v>0.95971032215468932</v>
       </c>
@@ -2205,7 +2190,7 @@
         <f t="shared" si="5"/>
         <v>1.0151935004285446</v>
       </c>
-      <c r="P11" s="78">
+      <c r="P11" s="69">
         <f t="shared" si="1"/>
         <v>1.5284614453107137E-3</v>
       </c>
@@ -2213,10 +2198,10 @@
         <f t="shared" si="2"/>
         <v>1.0168103259321519</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="40">
         <v>0.95456215</v>
       </c>
-      <c r="S11" s="77">
+      <c r="S11" s="68">
         <f>T11+U11+W11</f>
         <v>0.96123878360000004</v>
       </c>
@@ -2232,7 +2217,7 @@
       <c r="W11" s="9">
         <v>6.7796359999999995E-4</v>
       </c>
-      <c r="X11" s="47"/>
+      <c r="X11" s="40"/>
     </row>
     <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -2244,7 +2229,7 @@
       <c r="C12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="71">
         <f t="shared" si="3"/>
         <v>0.168332709</v>
       </c>
@@ -2258,19 +2243,19 @@
         <v>3.009353E-4</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="47">
+      <c r="I12" s="40">
         <v>0.18561849965100544</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>0.187</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <v>1.6800000000000002E-4</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>2.21E-6</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="26">
         <f t="shared" si="0"/>
         <v>0.35395120865100543</v>
       </c>
@@ -2278,7 +2263,7 @@
         <f t="shared" si="5"/>
         <v>2.102688246115052</v>
       </c>
-      <c r="P12" s="78">
+      <c r="P12" s="69">
         <f t="shared" si="1"/>
         <v>3.6974415389945947E-3</v>
       </c>
@@ -2286,10 +2271,10 @@
         <f t="shared" si="2"/>
         <v>2.1246533268231311</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="40">
         <v>0.34020229000000002</v>
       </c>
-      <c r="S12" s="77">
+      <c r="S12" s="68">
         <f>T12+U12+W12</f>
         <v>0.35764865019000003</v>
       </c>
@@ -2305,91 +2290,91 @@
       <c r="W12" s="9">
         <v>3.0230988999999998E-4</v>
       </c>
-      <c r="X12" s="47"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="33" t="str">
+      <c r="C13" s="27" t="str">
         <f>C12</f>
         <v>Hard coal {Europe, without Russia and Turkey}| market for hard coal | APOS, S</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="63">
         <f>D12</f>
         <v>0.168332709</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="104">
+      <c r="H13" s="61"/>
+      <c r="I13" s="95">
         <f>I12</f>
         <v>0.18561849965100544</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="58">
         <v>0.187</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="58">
         <v>1.6800000000000002E-4</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="58">
         <v>2.21E-6</v>
       </c>
-      <c r="M13" s="34" t="s">
+      <c r="M13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="34" t="s">
+      <c r="O13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="P13" s="104">
+      <c r="P13" s="95">
         <f>P12</f>
         <v>3.6974415389945947E-3</v>
       </c>
-      <c r="Q13" s="34" t="s">
+      <c r="Q13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S13" s="72">
+      <c r="S13" s="63">
         <f>S12</f>
         <v>0.35764865019000003</v>
       </c>
-      <c r="T13" s="34" t="s">
+      <c r="T13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="U13" s="34" t="s">
+      <c r="U13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="V13" s="34" t="s">
+      <c r="V13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="W13" s="34" t="s">
+      <c r="W13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="33" t="s">
+      <c r="X13" s="46"/>
+      <c r="Y13" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2398,7 +2383,7 @@
       <c r="C14" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="47">
         <f t="shared" ref="D14" si="6">SUM(E14:G14)</f>
         <v>1.6779198590000002</v>
       </c>
@@ -2411,10 +2396,10 @@
       <c r="G14" s="9">
         <v>1.0022220000000001E-3</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="40">
         <v>0.3499479677028875</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="26">
         <f t="shared" ref="M14" si="7">I14+D14</f>
         <v>2.0278678267028876</v>
       </c>
@@ -2422,7 +2407,7 @@
         <f t="shared" ref="O14" si="8">M14/D14</f>
         <v>1.2085605971142435</v>
       </c>
-      <c r="P14" s="78">
+      <c r="P14" s="69">
         <f t="shared" ref="P14" si="9">S14-M14</f>
         <v>8.0557318971123948E-3</v>
       </c>
@@ -2430,10 +2415,10 @@
         <f t="shared" ref="Q14" si="10">S14/D14</f>
         <v>1.2133616201511324</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="40">
         <v>2.0126772000000002</v>
       </c>
-      <c r="S14" s="77">
+      <c r="S14" s="68">
         <f t="shared" ref="S14" si="11">T14+U14+W14</f>
         <v>2.0359235586</v>
       </c>
@@ -2449,7 +2434,7 @@
       <c r="W14" s="9">
         <v>1.0048705999999999E-3</v>
       </c>
-      <c r="X14" s="47"/>
+      <c r="X14" s="40"/>
     </row>
     <row r="15" spans="1:25" s="9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2461,7 +2446,7 @@
       <c r="C15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="47">
         <f t="shared" ref="D15:D16" si="12">SUM(E15:G15)</f>
         <v>5.1999433339999998E-2</v>
       </c>
@@ -2474,13 +2459,13 @@
       <c r="G15" s="9">
         <v>9.0315733999999997E-4</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="72">
         <v>1.77429172263599E-3</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="27">
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="26">
         <f>I15+D15</f>
         <v>5.3773725062635988E-2</v>
       </c>
@@ -2488,7 +2473,7 @@
         <f t="shared" ref="O15:O21" si="13">M15/D15</f>
         <v>1.0341213664971063</v>
       </c>
-      <c r="P15" s="78">
+      <c r="P15" s="69">
         <f t="shared" ref="P15:P22" si="14">S15-M15</f>
         <v>5.6927711736400738E-4</v>
       </c>
@@ -2496,10 +2481,10 @@
         <f t="shared" ref="Q15:Q21" si="15">S15/D15</f>
         <v>1.0450691226705586</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="40">
         <v>-1.7583219999999999</v>
       </c>
-      <c r="S15" s="77">
+      <c r="S15" s="68">
         <f t="shared" ref="S15:S22" si="16">T15+U15+W15</f>
         <v>5.4343002179999995E-2</v>
       </c>
@@ -2515,7 +2500,7 @@
       <c r="W15" s="9">
         <v>9.1218858000000004E-4</v>
       </c>
-      <c r="X15" s="47"/>
+      <c r="X15" s="40"/>
     </row>
     <row r="16" spans="1:25" s="9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -2524,10 +2509,10 @@
       <c r="B16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="47">
         <f t="shared" si="12"/>
         <v>5.806483087E-2</v>
       </c>
@@ -2540,13 +2525,13 @@
       <c r="G16" s="9">
         <v>9.3564186999999996E-4</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="72">
         <v>1.8758206934954441E-3</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="27">
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="26">
         <f>I16+D16</f>
         <v>5.9940651563495442E-2</v>
       </c>
@@ -2554,7 +2539,7 @@
         <f t="shared" si="13"/>
         <v>1.032305625718521</v>
       </c>
-      <c r="P16" s="78">
+      <c r="P16" s="69">
         <f t="shared" si="14"/>
         <v>8.2417455650455468E-4</v>
       </c>
@@ -2562,10 +2547,10 @@
         <f t="shared" si="15"/>
         <v>1.0464996661411958</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="40">
         <v>-1.7522339</v>
       </c>
-      <c r="S16" s="77">
+      <c r="S16" s="68">
         <f t="shared" si="16"/>
         <v>6.0764826119999997E-2</v>
       </c>
@@ -2581,7 +2566,7 @@
       <c r="W16" s="9">
         <v>9.4520002000000002E-4</v>
       </c>
-      <c r="X16" s="47"/>
+      <c r="X16" s="40"/>
     </row>
     <row r="17" spans="1:25" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -2590,10 +2575,10 @@
       <c r="B17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="47">
         <f>SUM(E17:G17)</f>
         <v>4.4134032599999998E-2</v>
       </c>
@@ -2606,20 +2591,20 @@
       <c r="G17" s="9">
         <v>1.4052476000000001E-3</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81">
+      <c r="H17" s="71"/>
+      <c r="I17" s="72">
         <v>1.8305546899250889E-3</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <v>1.7600000000000001E-3</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <v>1.6699999999999999E-5</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="20">
         <v>2.2200000000000001E-5</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <f>I17+D17</f>
         <v>4.5964587289925085E-2</v>
       </c>
@@ -2627,7 +2612,7 @@
         <f t="shared" si="13"/>
         <v>1.0414771681191237</v>
       </c>
-      <c r="P17" s="78">
+      <c r="P17" s="69">
         <f t="shared" si="14"/>
         <v>8.1999961007490907E-4</v>
       </c>
@@ -2635,26 +2620,26 @@
         <f t="shared" si="15"/>
         <v>1.0600569253216168</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="40">
         <v>-1.6079169</v>
       </c>
-      <c r="S17" s="77">
+      <c r="S17" s="68">
         <f t="shared" si="16"/>
         <v>4.6784586899999994E-2</v>
       </c>
       <c r="T17" s="9">
         <v>3.3371751999999998E-2</v>
       </c>
-      <c r="U17" s="77">
+      <c r="U17" s="68">
         <v>1.1993027E-2</v>
       </c>
       <c r="V17" s="9">
         <v>-1.6547015</v>
       </c>
-      <c r="W17" s="77">
+      <c r="W17" s="68">
         <v>1.4198079E-3</v>
       </c>
-      <c r="X17" s="47" t="s">
+      <c r="X17" s="40" t="s">
         <v>72</v>
       </c>
       <c r="Y17" s="9" t="s">
@@ -2672,7 +2657,7 @@
       <c r="C18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="47">
         <f t="shared" ref="D18" si="17">SUM(E18:G18)</f>
         <v>3.9861937520000001E-2</v>
       </c>
@@ -2685,14 +2670,14 @@
       <c r="G18" s="9">
         <v>6.5085982000000003E-4</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81">
+      <c r="H18" s="71"/>
+      <c r="I18" s="72">
         <v>1.4900703111372291E-3</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="27">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="26">
         <f>I18+D18</f>
         <v>4.1352007831137232E-2</v>
       </c>
@@ -2700,7 +2685,7 @@
         <f t="shared" si="13"/>
         <v>1.0373807798577179</v>
       </c>
-      <c r="P18" s="78">
+      <c r="P18" s="69">
         <f t="shared" si="14"/>
         <v>4.6777705788862776E-2</v>
       </c>
@@ -2708,26 +2693,26 @@
         <f t="shared" si="15"/>
         <v>2.210873808524298</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="40">
         <v>-1.5237456</v>
       </c>
-      <c r="S18" s="77">
+      <c r="S18" s="68">
         <f t="shared" si="16"/>
         <v>8.8129713620000008E-2</v>
       </c>
       <c r="T18" s="9">
         <v>8.5945094999999999E-2</v>
       </c>
-      <c r="U18" s="77">
+      <c r="U18" s="68">
         <v>1.5271864E-3</v>
       </c>
       <c r="V18" s="9">
         <v>-1.6118752999999999</v>
       </c>
-      <c r="W18" s="77">
+      <c r="W18" s="68">
         <v>6.5743221999999999E-4</v>
       </c>
-      <c r="X18" s="47"/>
+      <c r="X18" s="40"/>
     </row>
     <row r="19" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -2756,8 +2741,8 @@
         <f t="shared" si="18"/>
         <v>6.5085982000000003E-4</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="45">
+      <c r="H19" s="32"/>
+      <c r="I19" s="38">
         <f t="shared" ref="I19:N19" si="19">I18</f>
         <v>1.4900703111372291E-3</v>
       </c>
@@ -2785,7 +2770,7 @@
         <f t="shared" si="13"/>
         <v>1.0373807798577179</v>
       </c>
-      <c r="P19" s="78">
+      <c r="P19" s="69">
         <f t="shared" si="14"/>
         <v>4.6777705788862776E-2</v>
       </c>
@@ -2793,11 +2778,11 @@
         <f t="shared" si="15"/>
         <v>2.210873808524298</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="38">
         <f t="shared" ref="R19:W19" si="20">R18</f>
         <v>-1.5237456</v>
       </c>
-      <c r="S19" s="77">
+      <c r="S19" s="68">
         <f t="shared" si="16"/>
         <v>8.8129713620000008E-2</v>
       </c>
@@ -2817,7 +2802,7 @@
         <f t="shared" si="20"/>
         <v>6.5743221999999999E-4</v>
       </c>
-      <c r="X19" s="46" t="s">
+      <c r="X19" s="39" t="s">
         <v>72</v>
       </c>
       <c r="Y19" s="14" t="s">
@@ -2834,7 +2819,7 @@
       <c r="C20" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="47">
         <f>SUM(E20:G20)</f>
         <v>0.16342119499999999</v>
       </c>
@@ -2847,23 +2832,23 @@
       <c r="G20" s="9">
         <v>1.514437E-3</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="47">
+      <c r="H20" s="71"/>
+      <c r="I20" s="40">
         <v>5.7400795611145085E-3</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="27">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="26">
         <f>I20+D20</f>
         <v>0.16916127456111449</v>
       </c>
-      <c r="N20" s="80"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="7">
         <f t="shared" si="13"/>
         <v>1.0351244498066148</v>
       </c>
-      <c r="P20" s="78">
+      <c r="P20" s="69">
         <f t="shared" si="14"/>
         <v>1.6744276388855062E-3</v>
       </c>
@@ -2871,163 +2856,163 @@
         <f t="shared" si="15"/>
         <v>1.0453705359332368</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="40">
         <v>-0.26546818</v>
       </c>
-      <c r="S20" s="77">
+      <c r="S20" s="68">
         <f t="shared" si="16"/>
         <v>0.17083570219999999</v>
       </c>
-      <c r="T20" s="83">
+      <c r="T20" s="74">
         <v>8.0913271999999994E-2</v>
       </c>
-      <c r="U20" s="84">
+      <c r="U20" s="75">
         <v>8.8393191999999995E-2</v>
       </c>
-      <c r="V20" s="83">
+      <c r="V20" s="74">
         <v>-0.43630387999999998</v>
       </c>
-      <c r="W20" s="83">
+      <c r="W20" s="74">
         <v>1.5292382000000001E-3</v>
       </c>
-      <c r="X20" s="47"/>
-    </row>
-    <row r="21" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
+      <c r="X20" s="40"/>
+    </row>
+    <row r="21" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="66">
         <f>SUM(E21:G21)</f>
         <v>4.5314576760000003E-2</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="56">
         <v>5.7410372000000001E-3</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="56">
         <v>3.8852846000000003E-2</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="56">
         <v>7.2069356000000005E-4</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="53">
         <v>1.5423613774086734E-3</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="54">
         <v>1.47E-3</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="54">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="54">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="33">
         <f>I21+D21</f>
         <v>4.6856938137408675E-2</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="57">
+      <c r="N21" s="50"/>
+      <c r="O21" s="48">
         <f t="shared" si="13"/>
         <v>1.0340367600822467</v>
       </c>
-      <c r="P21" s="86">
+      <c r="P21" s="77">
         <f t="shared" si="14"/>
         <v>6.0156356259132016E-4</v>
       </c>
-      <c r="Q21" s="57">
+      <c r="Q21" s="48">
         <f t="shared" si="15"/>
         <v>1.0473120371697364</v>
       </c>
-      <c r="R21" s="62">
+      <c r="R21" s="53">
         <v>-1.0187816999999999</v>
       </c>
-      <c r="S21" s="98">
+      <c r="S21" s="89">
         <f t="shared" si="16"/>
         <v>4.7458501699999996E-2</v>
       </c>
-      <c r="T21" s="99">
+      <c r="T21" s="90">
         <v>4.0858935999999998E-2</v>
       </c>
-      <c r="U21" s="100">
+      <c r="U21" s="91">
         <v>5.8715963999999999E-3</v>
       </c>
-      <c r="V21" s="99">
+      <c r="V21" s="90">
         <v>-1.0662402</v>
       </c>
-      <c r="W21" s="99">
+      <c r="W21" s="90">
         <v>7.2796929999999996E-4</v>
       </c>
-      <c r="X21" s="62" t="s">
+      <c r="X21" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="Y21" s="65" t="s">
+      <c r="Y21" s="56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="33" t="str">
+      <c r="B22" s="27" t="str">
         <f>B21</f>
         <v>ecoinvent 3.7.1</v>
       </c>
-      <c r="C22" s="33" t="str">
+      <c r="C22" s="27" t="str">
         <f>C21</f>
         <v>Wood chips, wet, measured as dry mass {Europe without Switzerland}| market for | APOS, S</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="27">
         <f t="shared" ref="D22" si="21">D21</f>
         <v>4.5314576760000003E-2</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="46">
         <f t="shared" ref="I22:N22" si="22">I21</f>
         <v>1.5423613774086734E-3</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="27">
         <f t="shared" si="22"/>
         <v>1.47E-3</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="27">
         <f t="shared" si="22"/>
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="27">
         <f t="shared" si="22"/>
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="N22" s="33">
+      <c r="N22" s="27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="86">
+      <c r="O22" s="48"/>
+      <c r="P22" s="77">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="76">
+      <c r="Q22" s="48"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="67">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="33" t="s">
+      <c r="X22" s="46"/>
+      <c r="Y22" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3038,33 +3023,33 @@
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="27">
+      <c r="C23" s="30"/>
+      <c r="D23" s="26">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="37">
         <f>SUM(J23:L23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="7"/>
-      <c r="P23" s="53"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="53"/>
+      <c r="R23" s="45"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="43"/>
+      <c r="X23" s="37"/>
       <c r="Y23" s="5" t="s">
         <v>38</v>
       </c>
@@ -3076,8 +3061,8 @@
       <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="27">
+      <c r="C24" s="30"/>
+      <c r="D24" s="26">
         <f>SUM(E24:G24)</f>
         <v>0.25928180000000001</v>
       </c>
@@ -3090,7 +3075,7 @@
       <c r="G24" s="5">
         <v>3.4799999999999999E-5</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="37">
         <f>SUM(J24:L24)</f>
         <v>5.5818774028000007E-2</v>
       </c>
@@ -3104,9 +3089,9 @@
       <c r="L24" s="6">
         <v>7.3700000000000005E-8</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="X24" s="43"/>
+      <c r="P24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="X24" s="37"/>
       <c r="Y24" s="5" t="s">
         <v>38</v>
       </c>
@@ -3121,7 +3106,7 @@
       <c r="C25" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="47">
         <f>SUM(E25:G25)</f>
         <v>0.15319568550800003</v>
       </c>
@@ -3131,16 +3116,16 @@
       <c r="F25" s="9">
         <v>0.14448726000000001</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="68">
         <v>6.9417407999999999E-5</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="40">
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="27">
+      <c r="J25" s="70"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="26">
         <f>I25+D25</f>
         <v>0.16265522030727447</v>
       </c>
@@ -3148,7 +3133,7 @@
         <f>M25/D25</f>
         <v>1.0617480496784648</v>
       </c>
-      <c r="P25" s="78">
+      <c r="P25" s="69">
         <f>S25-M25</f>
         <v>2.5779281707254964E-3</v>
       </c>
@@ -3156,10 +3141,10 @@
         <f>S25/D25</f>
         <v>1.0785757309684243</v>
       </c>
-      <c r="R25" s="40">
+      <c r="R25" s="34">
         <v>0.16126499</v>
       </c>
-      <c r="S25" s="77">
+      <c r="S25" s="68">
         <f t="shared" ref="S25:S27" si="23">T25+U25+W25</f>
         <v>0.16523314847799997</v>
       </c>
@@ -3172,38 +3157,38 @@
       <c r="V25" s="9">
         <v>-3.9681628999999998E-3</v>
       </c>
-      <c r="W25" s="77">
+      <c r="W25" s="68">
         <v>6.9804677999999999E-5</v>
       </c>
-      <c r="X25" s="47"/>
-    </row>
-    <row r="26" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="X25" s="40"/>
+    </row>
+    <row r="26" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="28">
         <f>D25-(277.8*0.459/1000)</f>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="40">
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="26">
         <f>I26+D26</f>
         <v>3.5145020307274455E-2</v>
       </c>
@@ -3211,7 +3196,7 @@
         <f>M26/D26</f>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P26" s="48">
+      <c r="P26" s="41">
         <f>S26-M26</f>
         <v>2.1746128170725507E-2</v>
       </c>
@@ -3219,27 +3204,27 @@
         <f>S26/D26</f>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R26" s="48">
+      <c r="R26" s="41">
         <f>R25-(277.8*0.39/1000)</f>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S26" s="34">
+      <c r="S26" s="28">
         <f>S25-(277.8*0.39/1000)</f>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T26" s="33" t="s">
+      <c r="T26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="U26" s="33" t="s">
+      <c r="U26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="V26" s="33" t="s">
+      <c r="V26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="W26" s="33" t="s">
+      <c r="W26" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="X26" s="55"/>
+      <c r="X26" s="46"/>
     </row>
     <row r="27" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -3248,10 +3233,10 @@
       <c r="B27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="47">
         <f>SUM(E27:G27)</f>
         <v>0.11952712233</v>
       </c>
@@ -3264,29 +3249,29 @@
       <c r="G27" s="9">
         <v>2.8596232999999999E-4</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="40">
         <v>5.4821588810564032E-3</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="20">
         <f>0.00883</f>
         <v>8.8299999999999993E-3</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <v>2.33E-4</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <v>1.28E-6</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="26">
         <f>I27+D27</f>
         <v>0.12500928121105639</v>
       </c>
-      <c r="N27" s="33"/>
+      <c r="N27" s="27"/>
       <c r="O27" s="7">
         <f>M27/D27</f>
         <v>1.045865396691479</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="41">
         <f>S27-M27</f>
         <v>1.9631136489436096E-3</v>
       </c>
@@ -3294,26 +3279,26 @@
         <f>S27/D27</f>
         <v>1.0622893982960997</v>
       </c>
-      <c r="R27" s="85">
+      <c r="R27" s="76">
         <v>0.12100505</v>
       </c>
-      <c r="S27" s="77">
+      <c r="S27" s="68">
         <f t="shared" si="23"/>
         <v>0.12697239486</v>
       </c>
-      <c r="T27" s="82">
+      <c r="T27" s="73">
         <v>0.11208761</v>
       </c>
-      <c r="U27" s="77">
+      <c r="U27" s="68">
         <v>1.4598074000000001E-2</v>
       </c>
-      <c r="V27" s="77">
+      <c r="V27" s="68">
         <v>-5.9673495E-3</v>
       </c>
       <c r="W27" s="9">
         <v>2.8671086E-4</v>
       </c>
-      <c r="X27" s="47"/>
+      <c r="X27" s="40"/>
       <c r="Y27" s="9" t="s">
         <v>38</v>
       </c>
@@ -3325,77 +3310,77 @@
       <c r="B28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="28">
         <f>D$26</f>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E28" s="34" t="str">
+      <c r="E28" s="28" t="str">
         <f t="shared" ref="E28:G38" si="24">E$26</f>
         <v>-</v>
       </c>
-      <c r="F28" s="34" t="str">
+      <c r="F28" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G28" s="34" t="str">
+      <c r="G28" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="41">
         <f t="shared" ref="I28:I41" si="25">I$26</f>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="34">
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="28">
         <f t="shared" ref="M28:O41" si="26">M$26</f>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N28" s="34">
+      <c r="N28" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O28" s="34">
+      <c r="O28" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P28" s="48">
+      <c r="P28" s="41">
         <f t="shared" ref="P28:P37" si="27">P$26</f>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q28" s="34">
+      <c r="Q28" s="28">
         <f t="shared" ref="Q28:W41" si="28">Q$26</f>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R28" s="48">
+      <c r="R28" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S28" s="34">
+      <c r="S28" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T28" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U28" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V28" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W28" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X28" s="46"/>
+      <c r="T28" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U28" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V28" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W28" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X28" s="39"/>
     </row>
     <row r="29" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
@@ -3404,32 +3389,32 @@
       <c r="B29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="28">
         <f>D$26</f>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="46"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="39"/>
     </row>
     <row r="30" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
@@ -3438,77 +3423,77 @@
       <c r="B30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="28">
         <f>D$26</f>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E30" s="34" t="str">
+      <c r="E30" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F30" s="34" t="str">
+      <c r="F30" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G30" s="34" t="str">
+      <c r="G30" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="34">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N30" s="34">
+      <c r="N30" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P30" s="48">
+      <c r="P30" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R30" s="48">
+      <c r="R30" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S30" s="34">
+      <c r="S30" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T30" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U30" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V30" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W30" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X30" s="46"/>
+      <c r="T30" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U30" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V30" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W30" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X30" s="39"/>
     </row>
     <row r="31" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
@@ -3517,77 +3502,77 @@
       <c r="B31" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="28">
         <f t="shared" ref="D31:D38" si="29">D$26</f>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E31" s="34" t="str">
+      <c r="E31" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F31" s="34" t="str">
+      <c r="F31" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G31" s="34" t="str">
+      <c r="G31" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="34">
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N31" s="34">
+      <c r="N31" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P31" s="48">
+      <c r="P31" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T31" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U31" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V31" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W31" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X31" s="46"/>
+      <c r="T31" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U31" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V31" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W31" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X31" s="39"/>
     </row>
     <row r="32" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
@@ -3596,77 +3581,77 @@
       <c r="B32" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E32" s="34" t="str">
+      <c r="E32" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F32" s="34" t="str">
+      <c r="F32" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G32" s="34" t="str">
+      <c r="G32" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="34">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N32" s="34">
+      <c r="N32" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P32" s="48">
+      <c r="P32" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q32" s="34">
+      <c r="Q32" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S32" s="34">
+      <c r="S32" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T32" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U32" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V32" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W32" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X32" s="46"/>
+      <c r="T32" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U32" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V32" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W32" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X32" s="39"/>
     </row>
     <row r="33" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
@@ -3675,77 +3660,77 @@
       <c r="B33" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E33" s="34" t="str">
+      <c r="E33" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F33" s="34" t="str">
+      <c r="F33" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G33" s="34" t="str">
+      <c r="G33" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="34">
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N33" s="34">
+      <c r="N33" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P33" s="48">
+      <c r="P33" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q33" s="34">
+      <c r="Q33" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R33" s="48">
+      <c r="R33" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S33" s="34">
+      <c r="S33" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T33" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U33" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V33" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W33" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X33" s="46"/>
+      <c r="T33" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U33" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V33" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W33" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X33" s="39"/>
     </row>
     <row r="34" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
@@ -3754,77 +3739,77 @@
       <c r="B34" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E34" s="34" t="str">
+      <c r="E34" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F34" s="34" t="str">
+      <c r="F34" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G34" s="34" t="str">
+      <c r="G34" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="34">
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N34" s="34">
+      <c r="N34" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S34" s="34">
+      <c r="S34" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T34" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U34" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V34" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W34" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X34" s="46"/>
+      <c r="T34" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U34" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V34" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W34" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X34" s="39"/>
     </row>
     <row r="35" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
@@ -3833,314 +3818,314 @@
       <c r="B35" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E35" s="34" t="str">
+      <c r="E35" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F35" s="34" t="str">
+      <c r="F35" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G35" s="34" t="str">
+      <c r="G35" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I35" s="48">
+      <c r="I35" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="34">
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N35" s="34">
+      <c r="N35" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P35" s="48">
+      <c r="P35" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q35" s="34">
+      <c r="Q35" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R35" s="48">
+      <c r="R35" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S35" s="34">
+      <c r="S35" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T35" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U35" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V35" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W35" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X35" s="46"/>
+      <c r="T35" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U35" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V35" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W35" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X35" s="39"/>
     </row>
     <row r="36" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E36" s="34" t="str">
+      <c r="E36" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F36" s="34" t="str">
+      <c r="F36" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G36" s="34" t="str">
+      <c r="G36" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I36" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="34">
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N36" s="34">
+      <c r="N36" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P36" s="48">
+      <c r="P36" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q36" s="34">
+      <c r="Q36" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S36" s="34">
+      <c r="S36" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T36" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U36" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V36" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W36" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X36" s="46"/>
+      <c r="T36" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U36" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V36" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W36" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X36" s="39"/>
     </row>
     <row r="37" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="31" t="s">
         <v>192</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E37" s="34" t="str">
+      <c r="E37" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F37" s="34" t="str">
+      <c r="F37" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G37" s="34" t="str">
+      <c r="G37" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="34">
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N37" s="34">
+      <c r="N37" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P37" s="48">
+      <c r="P37" s="41">
         <f t="shared" si="27"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R37" s="48">
+      <c r="R37" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S37" s="34">
+      <c r="S37" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T37" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U37" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V37" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W37" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X37" s="46"/>
+      <c r="T37" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U37" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V37" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W37" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X37" s="39"/>
     </row>
     <row r="38" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="28">
         <f t="shared" si="29"/>
         <v>2.5685485508000011E-2</v>
       </c>
-      <c r="E38" s="34" t="str">
+      <c r="E38" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="F38" s="34" t="str">
+      <c r="F38" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="G38" s="34" t="str">
+      <c r="G38" s="28" t="str">
         <f t="shared" si="24"/>
         <v>-</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34">
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P38" s="48">
+      <c r="P38" s="41">
         <f>P$26</f>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q38" s="34">
+      <c r="Q38" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R38" s="48">
+      <c r="R38" s="41">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S38" s="34">
+      <c r="S38" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T38" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U38" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V38" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W38" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X38" s="46"/>
+      <c r="T38" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U38" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V38" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W38" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X38" s="39"/>
     </row>
     <row r="39" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -4152,68 +4137,68 @@
       <c r="C39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="33">
         <f>277.8*(((385+1.14)-295.8)/1000)/1000</f>
         <v>2.5096451999999995E-2</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N39" s="34">
+      <c r="N39" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P39" s="48">
+      <c r="P39" s="41">
         <f t="shared" ref="P39:P41" si="30">P$26</f>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q39" s="34">
+      <c r="Q39" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R39" s="34">
+      <c r="R39" s="28">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S39" s="34">
+      <c r="S39" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T39" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U39" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V39" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W39" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X39" s="43"/>
+      <c r="T39" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U39" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V39" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W39" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X39" s="37"/>
     </row>
     <row r="40" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -4225,68 +4210,68 @@
       <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <f>(277.8*(((385+1.14)-295.8)/1000)/1000)*0.2</f>
         <v>5.0192903999999993E-3</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="M40" s="34">
+      <c r="M40" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N40" s="34">
+      <c r="N40" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O40" s="34">
+      <c r="O40" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P40" s="48">
+      <c r="P40" s="41">
         <f t="shared" si="30"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="28">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S40" s="34">
+      <c r="S40" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T40" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U40" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V40" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W40" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X40" s="43"/>
+      <c r="T40" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U40" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V40" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W40" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X40" s="37"/>
     </row>
     <row r="41" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
@@ -4298,67 +4283,67 @@
       <c r="C41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="26">
         <v>0</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="41">
         <f t="shared" si="25"/>
         <v>9.4595347992744439E-3</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="28">
         <f t="shared" si="26"/>
         <v>3.5145020307274455E-2</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N41" s="28">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O41" s="34">
+      <c r="O41" s="28">
         <f t="shared" si="26"/>
         <v>1.3682832779753442</v>
       </c>
-      <c r="P41" s="48">
+      <c r="P41" s="41">
         <f t="shared" si="30"/>
         <v>2.1746128170725507E-2</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q41" s="28">
         <f t="shared" si="28"/>
         <v>2.2149142736772727</v>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="28">
         <f t="shared" si="28"/>
         <v>5.2922989999999989E-2</v>
       </c>
-      <c r="S41" s="34">
+      <c r="S41" s="28">
         <f t="shared" si="28"/>
         <v>5.6891148477999962E-2</v>
       </c>
-      <c r="T41" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="U41" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="V41" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="W41" s="34" t="str">
-        <f t="shared" si="28"/>
-        <v>-</v>
-      </c>
-      <c r="X41" s="43"/>
+      <c r="T41" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="U41" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="V41" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="W41" s="28" t="str">
+        <f t="shared" si="28"/>
+        <v>-</v>
+      </c>
+      <c r="X41" s="37"/>
     </row>
     <row r="42" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
@@ -4370,7 +4355,7 @@
       <c r="C42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="56">
+      <c r="D42" s="47">
         <f>SUM(E42:G42)</f>
         <v>7.2420436975999996E-3</v>
       </c>
@@ -4380,16 +4365,16 @@
       <c r="F42" s="9">
         <v>7.1143209000000002E-3</v>
       </c>
-      <c r="G42" s="77">
+      <c r="G42" s="68">
         <v>4.2491176E-6</v>
       </c>
-      <c r="I42" s="47">
+      <c r="I42" s="40">
         <v>1.7635554024553204E-4</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="56">
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="47">
         <f>(M43+M44)/2</f>
         <v>0</v>
       </c>
@@ -4397,7 +4382,7 @@
         <f>M42/D42</f>
         <v>0</v>
       </c>
-      <c r="P42" s="78">
+      <c r="P42" s="69">
         <f>S42-M42</f>
         <v>7.5596938259999994E-3</v>
       </c>
@@ -4405,10 +4390,10 @@
         <f>S42/D42</f>
         <v>1.043861945835161</v>
       </c>
-      <c r="R42" s="47">
+      <c r="R42" s="40">
         <v>7.4693787000000003E-3</v>
       </c>
-      <c r="S42" s="77">
+      <c r="S42" s="68">
         <f>T42+U42+W42</f>
         <v>7.5596938259999994E-3</v>
       </c>
@@ -4418,429 +4403,429 @@
       <c r="U42" s="9">
         <v>1.2711739000000001E-4</v>
       </c>
-      <c r="V42" s="77">
+      <c r="V42" s="68">
         <v>-9.0315116000000002E-5</v>
       </c>
-      <c r="W42" s="77">
+      <c r="W42" s="68">
         <v>4.2751360000000001E-6</v>
       </c>
-      <c r="X42" s="47" t="s">
+      <c r="X42" s="40" t="s">
         <v>22</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
+    <row r="43" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="59">
+      <c r="D43" s="33"/>
+      <c r="E43" s="50">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="50">
         <v>2.17</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="51">
         <v>5.4799999999999996E-3</v>
       </c>
-      <c r="H43" s="73">
+      <c r="H43" s="64">
         <f t="shared" ref="H43:H50" si="31">SUM(E43:G43)</f>
         <v>2.6204799999999997</v>
       </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="59">
+      <c r="I43" s="57"/>
+      <c r="J43" s="50">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K43" s="60">
+      <c r="K43" s="51">
         <v>2.5300000000000001E-3</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="P43" s="66"/>
-      <c r="R43" s="66"/>
-      <c r="X43" s="66"/>
-    </row>
-    <row r="44" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="L43" s="51"/>
+      <c r="P43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="X43" s="57"/>
+    </row>
+    <row r="44" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="29">
+      <c r="D44" s="66"/>
+      <c r="E44" s="50">
         <v>2.8200000000000002E-4</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="50">
         <v>4.7699999999999999E-3</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="50">
         <v>2.0999999999999998E-6</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="52">
         <f t="shared" si="31"/>
         <v>5.0540999999999997E-3</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="30" t="s">
+      <c r="I44" s="77"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
+    <row r="45" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="56">
         <v>0</v>
       </c>
-      <c r="E45" s="65">
+      <c r="E45" s="56">
         <v>1.9870781E-4</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="56">
         <v>2.2319206999999999E-3</v>
       </c>
-      <c r="G45" s="76">
+      <c r="G45" s="67">
         <v>8.9108432000000003E-6</v>
       </c>
-      <c r="H45" s="75">
+      <c r="H45" s="66">
         <f>SUM(E45:G45)</f>
         <v>2.4395393531999997E-3</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="53">
         <v>1.8024980137907608E-4</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="33">
         <f t="shared" ref="M45" si="32">I45+D45</f>
         <v>1.8024980137907608E-4</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="48">
         <f t="shared" ref="O45" si="33">M45/H45</f>
         <v>7.3886818485890904E-2</v>
       </c>
-      <c r="P45" s="86">
+      <c r="P45" s="77">
         <f t="shared" ref="P45" si="34">S45-M45</f>
         <v>2.4828475787209243E-3</v>
       </c>
-      <c r="Q45" s="57">
+      <c r="Q45" s="48">
         <f>S45/H45</f>
         <v>1.0916394427524829</v>
       </c>
-      <c r="R45" s="62">
+      <c r="R45" s="53">
         <v>2.3064466E-3</v>
       </c>
-      <c r="S45" s="76">
+      <c r="S45" s="67">
         <f t="shared" ref="S45" si="35">T45+U45+W45</f>
         <v>2.6630973801000002E-3</v>
       </c>
-      <c r="T45" s="65">
+      <c r="T45" s="56">
         <v>2.4405209000000001E-3</v>
       </c>
-      <c r="U45" s="65">
+      <c r="U45" s="56">
         <v>2.1359176999999999E-4</v>
       </c>
-      <c r="V45" s="65">
+      <c r="V45" s="56">
         <v>-3.5665083000000001E-4</v>
       </c>
-      <c r="W45" s="76">
+      <c r="W45" s="67">
         <v>8.9847100999999995E-6</v>
       </c>
-      <c r="X45" s="62"/>
-    </row>
-    <row r="46" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
+      <c r="X45" s="53"/>
+    </row>
+    <row r="46" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="105">
+      <c r="D46" s="96">
         <v>0</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="50">
         <v>6.5500000000000006E-5</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="50">
         <v>1.1900000000000001E-3</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="51">
         <v>1.44E-6</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="64">
         <f t="shared" si="31"/>
         <v>1.25694E-3</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="P46" s="66"/>
-      <c r="R46" s="66"/>
-      <c r="X46" s="66" t="s">
+      <c r="I46" s="57"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="P46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="X46" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+    <row r="47" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="105">
+      <c r="D47" s="96">
         <v>0</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="50">
         <v>5.5600000000000001E-6</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="50">
         <v>1.2400000000000001E-4</v>
       </c>
-      <c r="G47" s="59">
+      <c r="G47" s="50">
         <v>1.2200000000000001E-7</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="64">
         <f t="shared" si="31"/>
         <v>1.29682E-4</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="59">
+      <c r="I47" s="57"/>
+      <c r="J47" s="50">
         <v>4.26E-4</v>
       </c>
-      <c r="K47" s="59">
+      <c r="K47" s="50">
         <v>1.67E-7</v>
       </c>
-      <c r="L47" s="60">
+      <c r="L47" s="51">
         <v>1.6999999999999999E-9</v>
       </c>
-      <c r="N47" s="59">
+      <c r="N47" s="50">
         <f>SUM(J47:L47)</f>
         <v>4.2616869999999996E-4</v>
       </c>
-      <c r="P47" s="66"/>
-      <c r="R47" s="66"/>
-      <c r="X47" s="66" t="s">
+      <c r="P47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="X47" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="Y47" s="59" t="s">
+      <c r="Y47" s="50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
+    <row r="48" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D48" s="65">
+      <c r="D48" s="56">
         <v>0</v>
       </c>
-      <c r="E48" s="65">
+      <c r="E48" s="56">
         <v>1.6396343000000002E-5</v>
       </c>
-      <c r="F48" s="65">
+      <c r="F48" s="56">
         <v>2.7018611999999996E-4</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="56">
         <v>2.0293906000000002E-6</v>
       </c>
-      <c r="H48" s="75">
+      <c r="H48" s="66">
         <f t="shared" ref="H48:H49" si="36">SUM(E48:G48)</f>
         <v>2.8861185359999996E-4</v>
       </c>
-      <c r="I48" s="62">
+      <c r="I48" s="53">
         <v>2.3567781977861184E-5</v>
       </c>
-      <c r="M48" s="39">
+      <c r="M48" s="33">
         <f t="shared" ref="M48:M49" si="37">I48+D48</f>
         <v>2.3567781977861184E-5</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="48">
         <f t="shared" ref="O48:O49" si="38">M48/H48</f>
         <v>8.1659092251023149E-2</v>
       </c>
-      <c r="P48" s="86">
+      <c r="P48" s="77">
         <f t="shared" ref="P48:P49" si="39">S48-M48</f>
         <v>2.9205228412213874E-4</v>
       </c>
-      <c r="Q48" s="57">
+      <c r="Q48" s="48">
         <f>S48/H48</f>
         <v>1.0935797063187567</v>
       </c>
-      <c r="R48" s="108">
+      <c r="R48" s="99">
         <v>3.0011410000000001E-4</v>
       </c>
-      <c r="S48" s="76">
+      <c r="S48" s="67">
         <f t="shared" ref="S48:S49" si="40">T48+U48+W48</f>
         <v>3.1562006609999995E-4</v>
       </c>
-      <c r="T48" s="65">
+      <c r="T48" s="56">
         <v>2.9608150999999998E-4</v>
       </c>
-      <c r="U48" s="65">
+      <c r="U48" s="56">
         <v>1.7489964000000002E-5</v>
       </c>
-      <c r="V48" s="65">
+      <c r="V48" s="56">
         <v>-1.5505967999999999E-5</v>
       </c>
-      <c r="W48" s="65">
+      <c r="W48" s="56">
         <v>2.0485921000000003E-6</v>
       </c>
-      <c r="X48" s="62"/>
-    </row>
-    <row r="49" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="65" t="s">
+      <c r="X48" s="53"/>
+    </row>
+    <row r="49" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="65">
+      <c r="D49" s="56">
         <v>0</v>
       </c>
-      <c r="E49" s="65">
+      <c r="E49" s="56">
         <v>1.8221292999999999E-5</v>
       </c>
-      <c r="F49" s="65">
+      <c r="F49" s="56">
         <v>4.3925376000000002E-4</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="56">
         <v>7.2992406000000002E-7</v>
       </c>
-      <c r="H49" s="75">
+      <c r="H49" s="66">
         <f t="shared" si="36"/>
         <v>4.5820497706E-4</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="53">
         <v>3.158798931983298E-5</v>
       </c>
-      <c r="M49" s="39">
+      <c r="M49" s="33">
         <f t="shared" si="37"/>
         <v>3.158798931983298E-5</v>
       </c>
-      <c r="O49" s="57">
+      <c r="O49" s="48">
         <f t="shared" si="38"/>
         <v>6.8938555671115426E-2</v>
       </c>
-      <c r="P49" s="86">
+      <c r="P49" s="77">
         <f t="shared" si="39"/>
         <v>4.6220768521016689E-4</v>
       </c>
-      <c r="Q49" s="57">
+      <c r="Q49" s="48">
         <f>S49/H49</f>
         <v>1.0776741835026804</v>
       </c>
-      <c r="R49" s="62">
+      <c r="R49" s="53">
         <v>4.7886009999999999E-4</v>
       </c>
-      <c r="S49" s="76">
+      <c r="S49" s="67">
         <f t="shared" si="40"/>
         <v>4.9379567452999989E-4</v>
       </c>
-      <c r="T49" s="65">
+      <c r="T49" s="56">
         <v>4.7350597999999997E-4</v>
       </c>
-      <c r="U49" s="65">
+      <c r="U49" s="56">
         <v>1.9555373000000002E-5</v>
       </c>
-      <c r="V49" s="65">
+      <c r="V49" s="56">
         <v>-1.4935570000000001E-5</v>
       </c>
-      <c r="W49" s="65">
+      <c r="W49" s="56">
         <v>7.3432152999999997E-7</v>
       </c>
-      <c r="X49" s="62"/>
-    </row>
-    <row r="50" spans="1:25" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="74" t="s">
+      <c r="X49" s="53"/>
+    </row>
+    <row r="50" spans="1:25" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="105">
+      <c r="C50" s="62"/>
+      <c r="D50" s="96">
         <v>0</v>
       </c>
-      <c r="E50" s="59">
+      <c r="E50" s="50">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="50">
         <v>5.4299999999999999E-3</v>
       </c>
-      <c r="G50" s="60">
+      <c r="G50" s="51">
         <v>4.8099999999999997E-5</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="64">
         <f t="shared" si="31"/>
         <v>2.5078099999999999E-2</v>
       </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="59">
+      <c r="I50" s="57"/>
+      <c r="J50" s="50">
         <v>4.86E-4</v>
       </c>
-      <c r="K50" s="60">
+      <c r="K50" s="51">
         <v>4.3900000000000003E-5</v>
       </c>
-      <c r="L50" s="60">
+      <c r="L50" s="51">
         <v>6.1600000000000001E-7</v>
       </c>
-      <c r="N50" s="59">
+      <c r="N50" s="50">
         <f>SUM(J50:L50)</f>
         <v>5.3051600000000008E-4</v>
       </c>
-      <c r="P50" s="66"/>
-      <c r="R50" s="66"/>
-      <c r="X50" s="66"/>
-      <c r="Y50" s="59" t="s">
+      <c r="P50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="56" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -4858,17 +4843,17 @@
       <c r="F51" s="9">
         <v>2.9163656E-3</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="68">
         <v>7.9626759000000003E-6</v>
       </c>
-      <c r="H51" s="87">
+      <c r="H51" s="78">
         <f>SUM(E51:G51)</f>
         <v>3.1823279059E-3</v>
       </c>
-      <c r="I51" s="47">
+      <c r="I51" s="40">
         <v>2.8971064590416055E-4</v>
       </c>
-      <c r="M51" s="27">
+      <c r="M51" s="26">
         <f t="shared" ref="M51" si="41">I51+D51</f>
         <v>2.8971064590416055E-4</v>
       </c>
@@ -4876,7 +4861,7 @@
         <f>M51/H51</f>
         <v>9.1037333194684392E-2</v>
       </c>
-      <c r="P51" s="78">
+      <c r="P51" s="69">
         <f t="shared" ref="P51" si="42">S51-M51</f>
         <v>3.2184741263958389E-3</v>
       </c>
@@ -4884,10 +4869,10 @@
         <f>S51/H51</f>
         <v>1.1023957543142757</v>
       </c>
-      <c r="R51" s="47">
+      <c r="R51" s="40">
         <v>2.7463278000000001E-3</v>
       </c>
-      <c r="S51" s="77">
+      <c r="S51" s="68">
         <f t="shared" ref="S51" si="43">T51+U51+W51</f>
         <v>3.5081847722999997E-3</v>
       </c>
@@ -4900,156 +4885,156 @@
       <c r="V51" s="9">
         <v>-7.6185703E-4</v>
       </c>
-      <c r="W51" s="77">
+      <c r="W51" s="68">
         <v>8.0110723000000002E-6</v>
       </c>
-      <c r="X51" s="47"/>
-    </row>
-    <row r="52" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
+      <c r="X51" s="40"/>
+    </row>
+    <row r="52" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D52" s="56">
         <v>0</v>
       </c>
-      <c r="E52" s="76">
+      <c r="E52" s="67">
         <v>3.9299999999999999E-10</v>
       </c>
-      <c r="F52" s="76">
+      <c r="F52" s="67">
         <v>2.3199999999999999E-8</v>
       </c>
-      <c r="G52" s="76">
+      <c r="G52" s="67">
         <v>1.0599999999999999E-11</v>
       </c>
-      <c r="H52" s="76">
+      <c r="H52" s="67">
         <f>SUM(E52:G52)</f>
         <v>2.3603599999999999E-8</v>
       </c>
-      <c r="I52" s="62"/>
-      <c r="J52" s="65">
+      <c r="I52" s="53"/>
+      <c r="J52" s="56">
         <f>0.000000000001</f>
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="K52" s="76">
+      <c r="K52" s="67">
         <f>0.0000000000118</f>
         <v>1.1800000000000001E-11</v>
       </c>
-      <c r="L52" s="76"/>
-      <c r="P52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="X52" s="62"/>
-    </row>
-    <row r="53" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
+      <c r="L52" s="67"/>
+      <c r="P52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="X52" s="53"/>
+    </row>
+    <row r="53" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="65" t="s">
+      <c r="B53" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="65">
+      <c r="D53" s="56">
         <v>0</v>
       </c>
-      <c r="E53" s="76">
+      <c r="E53" s="67">
         <v>3.9299999999999999E-10</v>
       </c>
-      <c r="F53" s="76">
+      <c r="F53" s="67">
         <v>2.3199999999999999E-8</v>
       </c>
-      <c r="G53" s="76">
+      <c r="G53" s="67">
         <v>1.0599999999999999E-11</v>
       </c>
-      <c r="H53" s="61">
+      <c r="H53" s="52">
         <f>SUM(E53:G53)</f>
         <v>2.3603599999999999E-8</v>
       </c>
-      <c r="I53" s="62"/>
-      <c r="J53" s="65">
+      <c r="I53" s="53"/>
+      <c r="J53" s="56">
         <f>0.000000000001</f>
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="K53" s="76">
+      <c r="K53" s="67">
         <f>0.0000000000118</f>
         <v>1.1800000000000001E-11</v>
       </c>
-      <c r="L53" s="76"/>
-      <c r="P53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="X53" s="62"/>
-    </row>
-    <row r="54" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="65" t="s">
+      <c r="L53" s="67"/>
+      <c r="P53" s="53"/>
+      <c r="R53" s="53"/>
+      <c r="X53" s="53"/>
+    </row>
+    <row r="54" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="65" t="s">
+      <c r="B54" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="65">
+      <c r="D54" s="56">
         <v>0</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="56">
         <v>1.5670716E-4</v>
       </c>
-      <c r="F54" s="65">
+      <c r="F54" s="56">
         <v>2.7473836999999997E-3</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="56">
         <v>5.6599904999999999E-6</v>
       </c>
-      <c r="H54" s="75">
+      <c r="H54" s="66">
         <f>SUM(E54:G54)</f>
         <v>2.9097508504999999E-3</v>
       </c>
-      <c r="I54" s="62">
+      <c r="I54" s="53">
         <v>1.8364842520301005E-4</v>
       </c>
-      <c r="M54" s="39">
+      <c r="M54" s="33">
         <f t="shared" ref="M54" si="44">I54+D54</f>
         <v>1.8364842520301005E-4</v>
       </c>
-      <c r="O54" s="57">
+      <c r="O54" s="48">
         <f t="shared" ref="O54" si="45">M54/H54</f>
         <v>6.3114828258045749E-2</v>
       </c>
-      <c r="P54" s="86">
+      <c r="P54" s="77">
         <f t="shared" ref="P54" si="46">S54-M54</f>
         <v>2.9373541139969899E-3</v>
       </c>
-      <c r="Q54" s="57">
+      <c r="Q54" s="48">
         <f>S54/H54</f>
         <v>1.0726012980333692</v>
       </c>
-      <c r="R54" s="62">
+      <c r="R54" s="53">
         <v>2.7162771E-3</v>
       </c>
-      <c r="S54" s="76">
+      <c r="S54" s="67">
         <f t="shared" ref="S54" si="47">T54+U54+W54</f>
         <v>3.1210025392000001E-3</v>
       </c>
-      <c r="T54" s="65">
+      <c r="T54" s="56">
         <v>2.9435003E-3</v>
       </c>
-      <c r="U54" s="65">
+      <c r="U54" s="56">
         <v>1.7180567000000001E-4</v>
       </c>
-      <c r="V54" s="65">
+      <c r="V54" s="56">
         <v>-4.0472543E-4</v>
       </c>
-      <c r="W54" s="65">
+      <c r="W54" s="56">
         <v>5.6965692000000007E-6</v>
       </c>
-      <c r="X54" s="62"/>
+      <c r="X54" s="53"/>
     </row>
     <row r="55" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
@@ -5061,35 +5046,35 @@
       <c r="C55" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="56">
+      <c r="D55" s="47">
         <f>SUM(E55:G55)</f>
         <v>7.7146330300999991E-3</v>
       </c>
-      <c r="E55" s="77">
+      <c r="E55" s="68">
         <v>9.0325515000000002E-5</v>
       </c>
       <c r="F55" s="9">
         <v>7.6171460999999996E-3</v>
       </c>
-      <c r="G55" s="77">
+      <c r="G55" s="68">
         <v>7.1614150999999999E-6</v>
       </c>
-      <c r="H55" s="77"/>
-      <c r="I55" s="47">
+      <c r="H55" s="68"/>
+      <c r="I55" s="40">
         <v>3.0079547578257753E-4</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="20">
         <f>(0.000000000244+0.00000000131)/2</f>
         <v>7.7700000000000001E-10</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="20">
         <f>(0.00000585+0.000059)/2</f>
         <v>3.2425000000000002E-5</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="20">
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="M55" s="27">
+      <c r="M55" s="26">
         <f>I55+D55</f>
         <v>8.0154285058825769E-3</v>
       </c>
@@ -5098,7 +5083,7 @@
         <f t="shared" ref="O55:O63" si="48">M55/D55</f>
         <v>1.0389902506845072</v>
       </c>
-      <c r="P55" s="78">
+      <c r="P55" s="69">
         <f>S55-M55</f>
         <v>3.5668101921742211E-4</v>
       </c>
@@ -5106,26 +5091,26 @@
         <f t="shared" ref="Q55:Q63" si="49">S55/D55</f>
         <v>1.0852245975193817</v>
       </c>
-      <c r="R55" s="89">
+      <c r="R55" s="80">
         <v>8.2741136000000007E-3</v>
       </c>
-      <c r="S55" s="77">
+      <c r="S55" s="68">
         <f>T55+U55+W55</f>
         <v>8.372109525099999E-3</v>
       </c>
       <c r="T55" s="9">
         <v>8.2674589999999996E-3</v>
       </c>
-      <c r="U55" s="77">
+      <c r="U55" s="68">
         <v>9.7457899999999994E-5</v>
       </c>
-      <c r="V55" s="77">
+      <c r="V55" s="68">
         <v>-9.7995959000000003E-5</v>
       </c>
-      <c r="W55" s="77">
+      <c r="W55" s="68">
         <v>7.1926251000000004E-6</v>
       </c>
-      <c r="X55" s="47" t="s">
+      <c r="X55" s="40" t="s">
         <v>120</v>
       </c>
       <c r="Y55" s="9" t="s">
@@ -5142,7 +5127,7 @@
       <c r="C56" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="47">
         <f>SUM(E56:G56)</f>
         <v>8.594028499600001E-2</v>
       </c>
@@ -5152,16 +5137,16 @@
       <c r="F56" s="9">
         <v>8.5356050000000003E-2</v>
       </c>
-      <c r="G56" s="77">
+      <c r="G56" s="68">
         <v>6.5277136000000004E-5</v>
       </c>
-      <c r="I56" s="47">
+      <c r="I56" s="40">
         <v>1.8510238024887112E-3</v>
       </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="27">
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="26">
         <f>I56+D56</f>
         <v>8.7791308798488718E-2</v>
       </c>
@@ -5170,7 +5155,7 @@
         <f t="shared" si="48"/>
         <v>1.0215384880626688</v>
       </c>
-      <c r="P56" s="78">
+      <c r="P56" s="69">
         <f>S56-M56</f>
         <v>1.2218851325112856E-3</v>
       </c>
@@ -5178,10 +5163,10 @@
         <f t="shared" si="49"/>
         <v>1.0357563270257135</v>
       </c>
-      <c r="R56" s="47">
+      <c r="R56" s="40">
         <v>8.8560681000000002E-2</v>
       </c>
-      <c r="S56" s="77">
+      <c r="S56" s="68">
         <f>T56+U56+W56</f>
         <v>8.9013193931000004E-2</v>
       </c>
@@ -5194,10 +5179,10 @@
       <c r="V56" s="9">
         <v>-4.5251284999999999E-4</v>
       </c>
-      <c r="W56" s="77">
+      <c r="W56" s="68">
         <v>6.5834680999999996E-5</v>
       </c>
-      <c r="X56" s="47"/>
+      <c r="X56" s="40"/>
     </row>
     <row r="57" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
@@ -5206,74 +5191,74 @@
       <c r="B57" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="88" t="s">
+      <c r="C57" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="D57" s="93">
+      <c r="D57" s="84">
         <f>(D55+D56)/2</f>
         <v>4.6827459013050007E-2</v>
       </c>
-      <c r="E57" s="93">
+      <c r="E57" s="84">
         <f>(E55+E56)/2</f>
         <v>3.0464168750000004E-4</v>
       </c>
-      <c r="F57" s="93">
+      <c r="F57" s="84">
         <f>(F55+F56)/2</f>
         <v>4.6486598050000001E-2</v>
       </c>
-      <c r="G57" s="93">
+      <c r="G57" s="84">
         <f>(G55+G56)/2</f>
         <v>3.6219275549999999E-5</v>
       </c>
-      <c r="H57" s="93"/>
-      <c r="I57" s="94">
+      <c r="H57" s="84"/>
+      <c r="I57" s="85">
         <f>(I55+I56)/2</f>
         <v>1.0759096391356443E-3</v>
       </c>
-      <c r="J57" s="35"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="93">
+      <c r="J57" s="29"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="84">
         <f>(M55+M56)/2</f>
         <v>4.7903368652185647E-2</v>
       </c>
-      <c r="O57" s="103">
+      <c r="O57" s="94">
         <f>M57/D57</f>
         <v>1.0229760414468743</v>
       </c>
-      <c r="P57" s="94">
+      <c r="P57" s="85">
         <f>(P55+P56)/2</f>
         <v>7.8928307586435386E-4</v>
       </c>
-      <c r="Q57" s="103">
+      <c r="Q57" s="94">
         <f>S57/D57</f>
         <v>1.0398311750052505</v>
       </c>
-      <c r="R57" s="94">
+      <c r="R57" s="85">
         <f t="shared" ref="R57:W57" si="50">(R55+R56)/2</f>
         <v>4.8417397299999998E-2</v>
       </c>
-      <c r="S57" s="93">
+      <c r="S57" s="84">
         <f t="shared" si="50"/>
         <v>4.8692651728049999E-2</v>
       </c>
-      <c r="T57" s="93">
+      <c r="T57" s="84">
         <f t="shared" si="50"/>
         <v>4.8332373000000005E-2</v>
       </c>
-      <c r="U57" s="93">
+      <c r="U57" s="84">
         <f t="shared" si="50"/>
         <v>3.2376507499999997E-4</v>
       </c>
-      <c r="V57" s="93">
+      <c r="V57" s="84">
         <f t="shared" si="50"/>
         <v>-2.7525440450000001E-4</v>
       </c>
-      <c r="W57" s="93">
+      <c r="W57" s="84">
         <f t="shared" si="50"/>
         <v>3.6513653049999996E-5</v>
       </c>
-      <c r="X57" s="46"/>
+      <c r="X57" s="39"/>
     </row>
     <row r="58" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
@@ -5282,10 +5267,10 @@
       <c r="B58" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="90" t="s">
+      <c r="C58" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="56">
+      <c r="D58" s="47">
         <f>SUM(E58:G58)</f>
         <v>0.28544710988200001</v>
       </c>
@@ -5295,16 +5280,16 @@
       <c r="F58" s="9">
         <v>0.28419630000000001</v>
       </c>
-      <c r="G58" s="77">
+      <c r="G58" s="68">
         <v>7.1267482000000006E-5</v>
       </c>
-      <c r="I58" s="91">
+      <c r="I58" s="82">
         <v>0.17127548479744575</v>
       </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="27">
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="26">
         <f>I58+D58</f>
         <v>0.45672259467944576</v>
       </c>
@@ -5313,7 +5298,7 @@
         <f t="shared" si="48"/>
         <v>1.6000252896876368</v>
       </c>
-      <c r="P58" s="78">
+      <c r="P58" s="69">
         <f>S58-M58</f>
         <v>1.3400236155542422E-3</v>
       </c>
@@ -5321,10 +5306,10 @@
         <f t="shared" si="49"/>
         <v>1.6047197622156935</v>
       </c>
-      <c r="R58" s="47">
+      <c r="R58" s="40">
         <v>0.45720370999999999</v>
       </c>
-      <c r="S58" s="77">
+      <c r="S58" s="68">
         <f t="shared" ref="S58:S63" si="51">T58+U58+W58</f>
         <v>0.458062618295</v>
       </c>
@@ -5337,10 +5322,10 @@
       <c r="V58" s="9">
         <v>-8.5891669999999995E-4</v>
       </c>
-      <c r="W58" s="77">
+      <c r="W58" s="68">
         <v>7.1659495E-5</v>
       </c>
-      <c r="X58" s="47" t="s">
+      <c r="X58" s="40" t="s">
         <v>124</v>
       </c>
       <c r="Y58" s="9" t="s">
@@ -5354,10 +5339,10 @@
       <c r="B59" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="92" t="s">
+      <c r="C59" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="56">
+      <c r="D59" s="47">
         <f t="shared" ref="D59:D63" si="52">SUM(E59:G59)</f>
         <v>0.23395493630300002</v>
       </c>
@@ -5367,16 +5352,16 @@
       <c r="F59" s="9">
         <v>0.23236776000000001</v>
       </c>
-      <c r="G59" s="77">
+      <c r="G59" s="68">
         <v>9.0596302999999993E-5</v>
       </c>
-      <c r="I59" s="91">
+      <c r="I59" s="82">
         <v>0.23624114581172911</v>
       </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="27">
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="26">
         <f>I59+D59</f>
         <v>0.47019608211472913</v>
       </c>
@@ -5385,7 +5370,7 @@
         <f t="shared" si="48"/>
         <v>2.0097720079980195</v>
       </c>
-      <c r="P59" s="78">
+      <c r="P59" s="69">
         <f>S59-M59</f>
         <v>1.3456565692708256E-3</v>
       </c>
@@ -5393,26 +5378,26 @@
         <f t="shared" si="49"/>
         <v>2.0155237847740737</v>
       </c>
-      <c r="R59" s="81">
+      <c r="R59" s="72">
         <v>0.47045091999999999</v>
       </c>
-      <c r="S59" s="77">
+      <c r="S59" s="68">
         <f t="shared" si="51"/>
         <v>0.47154173868399996</v>
       </c>
-      <c r="T59" s="77">
+      <c r="T59" s="68">
         <v>0.46962864999999998</v>
       </c>
-      <c r="U59" s="77">
+      <c r="U59" s="68">
         <v>1.8221235000000001E-3</v>
       </c>
       <c r="V59" s="9">
         <v>-1.0908211000000001E-3</v>
       </c>
-      <c r="W59" s="77">
+      <c r="W59" s="68">
         <v>9.0965184000000004E-5</v>
       </c>
-      <c r="X59" s="47" t="s">
+      <c r="X59" s="40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5423,10 +5408,10 @@
       <c r="B60" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="56">
+      <c r="D60" s="47">
         <f t="shared" si="52"/>
         <v>0.22369933762000002</v>
       </c>
@@ -5436,16 +5421,16 @@
       <c r="F60" s="9">
         <v>0.22260947</v>
       </c>
-      <c r="G60" s="77">
+      <c r="G60" s="68">
         <v>5.6634420000000002E-5</v>
       </c>
-      <c r="I60" s="91">
+      <c r="I60" s="82">
         <v>0.14429156049601144</v>
       </c>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="27">
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="26">
         <f>I60+D60</f>
         <v>0.36799089811601149</v>
       </c>
@@ -5454,7 +5439,7 @@
         <f t="shared" si="48"/>
         <v>1.6450245317271381</v>
       </c>
-      <c r="P60" s="78">
+      <c r="P60" s="69">
         <f>S60-M60</f>
         <v>1.1448632719885388E-3</v>
       </c>
@@ -5462,96 +5447,96 @@
         <f t="shared" si="49"/>
         <v>1.6501423978959389</v>
       </c>
-      <c r="R60" s="81">
+      <c r="R60" s="72">
         <v>0.36837771000000002</v>
       </c>
-      <c r="S60" s="77">
+      <c r="S60" s="68">
         <f t="shared" si="51"/>
         <v>0.36913576138800003</v>
       </c>
-      <c r="T60" s="77">
+      <c r="T60" s="68">
         <v>0.36780125000000002</v>
       </c>
-      <c r="U60" s="77">
+      <c r="U60" s="68">
         <v>1.2775612E-3</v>
       </c>
       <c r="V60" s="9">
         <v>-7.5805388999999998E-4</v>
       </c>
-      <c r="W60" s="77">
+      <c r="W60" s="68">
         <v>5.6950188000000003E-5</v>
       </c>
-      <c r="X60" s="47" t="s">
+      <c r="X60" s="40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
+    <row r="61" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="65" t="s">
+      <c r="B61" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="58" t="str">
+      <c r="C61" s="49" t="str">
         <f>C60</f>
         <v>Natural gas, high pressure {NL}| market for | APOS, S</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D61" s="28">
         <f>D60</f>
         <v>0.22369933762000002</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="34" t="s">
+      <c r="G61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="28">
         <f>I60</f>
         <v>0.14429156049601144</v>
       </c>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="34" t="s">
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="N61" s="34" t="s">
+      <c r="N61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O61" s="34" t="s">
+      <c r="O61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="P61" s="48">
+      <c r="P61" s="41">
         <f>P60</f>
         <v>1.1448632719885388E-3</v>
       </c>
-      <c r="Q61" s="34" t="s">
+      <c r="Q61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="R61" s="34" t="s">
+      <c r="R61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S61" s="34">
+      <c r="S61" s="28">
         <f>S60</f>
         <v>0.36913576138800003</v>
       </c>
-      <c r="T61" s="34" t="s">
+      <c r="T61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="U61" s="34" t="s">
+      <c r="U61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="V61" s="34" t="s">
+      <c r="V61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="W61" s="34" t="s">
+      <c r="W61" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="X61" s="55"/>
+      <c r="X61" s="46"/>
     </row>
     <row r="62" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
@@ -5563,7 +5548,7 @@
       <c r="C62" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="56">
+      <c r="D62" s="47">
         <f t="shared" si="52"/>
         <v>2.5347597263599999</v>
       </c>
@@ -5576,10 +5561,10 @@
       <c r="G62" s="9">
         <v>4.0196935999999998E-4</v>
       </c>
-      <c r="I62" s="47">
+      <c r="I62" s="40">
         <v>0.19566677613031228</v>
       </c>
-      <c r="M62" s="27">
+      <c r="M62" s="26">
         <f t="shared" ref="M62:M63" si="53">I62+D62</f>
         <v>2.730426502490312</v>
       </c>
@@ -5587,7 +5572,7 @@
         <f t="shared" si="48"/>
         <v>1.0771934215679275</v>
       </c>
-      <c r="P62" s="78">
+      <c r="P62" s="69">
         <f t="shared" ref="P62:P63" si="54">S62-M62</f>
         <v>5.1341050896875906E-3</v>
       </c>
@@ -5595,10 +5580,10 @@
         <f t="shared" si="49"/>
         <v>1.0792189015518077</v>
       </c>
-      <c r="R62" s="47">
+      <c r="R62" s="40">
         <v>2.7227667000000002</v>
       </c>
-      <c r="S62" s="77">
+      <c r="S62" s="68">
         <f t="shared" si="51"/>
         <v>2.7355606075799996</v>
       </c>
@@ -5614,7 +5599,7 @@
       <c r="W62" s="9">
         <v>4.0357457999999998E-4</v>
       </c>
-      <c r="X62" s="47"/>
+      <c r="X62" s="40"/>
     </row>
     <row r="63" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
@@ -5626,7 +5611,7 @@
       <c r="C63" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="56">
+      <c r="D63" s="47">
         <f t="shared" si="52"/>
         <v>2.5347597263599999</v>
       </c>
@@ -5639,10 +5624,10 @@
       <c r="G63" s="9">
         <v>4.0196935999999998E-4</v>
       </c>
-      <c r="I63" s="47">
+      <c r="I63" s="40">
         <v>0.19566677613031228</v>
       </c>
-      <c r="M63" s="27">
+      <c r="M63" s="26">
         <f t="shared" si="53"/>
         <v>2.730426502490312</v>
       </c>
@@ -5650,7 +5635,7 @@
         <f t="shared" si="48"/>
         <v>1.0771934215679275</v>
       </c>
-      <c r="P63" s="78">
+      <c r="P63" s="69">
         <f t="shared" si="54"/>
         <v>5.1341050896875906E-3</v>
       </c>
@@ -5658,10 +5643,10 @@
         <f t="shared" si="49"/>
         <v>1.0792189015518077</v>
       </c>
-      <c r="R63" s="47">
+      <c r="R63" s="40">
         <v>2.7227667000000002</v>
       </c>
-      <c r="S63" s="77">
+      <c r="S63" s="68">
         <f t="shared" si="51"/>
         <v>2.7355606075799996</v>
       </c>
@@ -5677,7 +5662,7 @@
       <c r="W63" s="9">
         <v>4.0357457999999998E-4</v>
       </c>
-      <c r="X63" s="47"/>
+      <c r="X63" s="40"/>
     </row>
     <row r="64" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
@@ -5689,7 +5674,7 @@
       <c r="C64" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="56">
+      <c r="D64" s="47">
         <f t="shared" ref="D64:D76" si="55">SUM(E64:G64)</f>
         <v>1.09039228267E-2</v>
       </c>
@@ -5699,22 +5684,22 @@
       <c r="F64" s="9">
         <v>1.0761978E-2</v>
       </c>
-      <c r="G64" s="77">
+      <c r="G64" s="68">
         <v>9.0195466999999994E-6</v>
       </c>
-      <c r="I64" s="47">
+      <c r="I64" s="40">
         <v>4.2705581983538829E-4</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J64" s="20">
         <v>4.46E-4</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="20">
         <v>9.4900000000000006E-6</v>
       </c>
-      <c r="L64" s="79">
+      <c r="L64" s="70">
         <v>4.51E-8</v>
       </c>
-      <c r="M64" s="27">
+      <c r="M64" s="26">
         <f>I64+D64</f>
         <v>1.1330978646535388E-2</v>
       </c>
@@ -5722,7 +5707,7 @@
         <f>M64/D64</f>
         <v>1.0391653377066896</v>
       </c>
-      <c r="P64" s="78">
+      <c r="P64" s="69">
         <f>S64-M64</f>
         <v>1.0448362846461265E-4</v>
       </c>
@@ -5730,10 +5715,10 @@
         <f>S64/D64</f>
         <v>1.0487475431317654</v>
       </c>
-      <c r="R64" s="47">
+      <c r="R64" s="40">
         <v>1.1315403999999999E-2</v>
       </c>
-      <c r="S64" s="77">
+      <c r="S64" s="68">
         <f>T64+U64+W64</f>
         <v>1.1435462275000001E-2</v>
       </c>
@@ -5746,10 +5731,10 @@
       <c r="V64" s="9">
         <v>-1.2005836000000001E-4</v>
       </c>
-      <c r="W64" s="77">
+      <c r="W64" s="68">
         <v>9.0605950000000006E-6</v>
       </c>
-      <c r="X64" s="47" t="s">
+      <c r="X64" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5763,7 +5748,7 @@
       <c r="C65" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="56">
+      <c r="D65" s="47">
         <f t="shared" si="55"/>
         <v>5.0614320196999997E-3</v>
       </c>
@@ -5773,16 +5758,16 @@
       <c r="F65" s="9">
         <v>4.7102508999999999E-3</v>
       </c>
-      <c r="G65" s="77">
+      <c r="G65" s="68">
         <v>3.2050997000000002E-6</v>
       </c>
-      <c r="I65" s="47">
+      <c r="I65" s="40">
         <v>1.24991154681463E-4</v>
       </c>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="27">
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="26">
         <f>I65+D65</f>
         <v>5.1864231743814623E-3</v>
       </c>
@@ -5790,7 +5775,7 @@
         <f>M65/D65</f>
         <v>1.0246948203976611</v>
       </c>
-      <c r="P65" s="78">
+      <c r="P65" s="69">
         <f>S65-M65</f>
         <v>4.7612244818537666E-5</v>
       </c>
@@ -5798,10 +5783,10 @@
         <f>S65/D65</f>
         <v>1.0341016927281048</v>
       </c>
-      <c r="R65" s="47">
+      <c r="R65" s="40">
         <v>4.9667312000000003E-3</v>
       </c>
-      <c r="S65" s="77">
+      <c r="S65" s="68">
         <f>T65+U65+W65</f>
         <v>5.2340354192E-3</v>
       </c>
@@ -5814,10 +5799,10 @@
       <c r="V65" s="9">
         <v>-2.6730421999999999E-4</v>
       </c>
-      <c r="W65" s="77">
+      <c r="W65" s="68">
         <v>3.2247492E-6</v>
       </c>
-      <c r="X65" s="47"/>
+      <c r="X65" s="40"/>
     </row>
     <row r="66" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
@@ -5829,7 +5814,7 @@
       <c r="C66" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="56">
+      <c r="D66" s="47">
         <f t="shared" si="55"/>
         <v>2.8784948107999999</v>
       </c>
@@ -5842,15 +5827,15 @@
       <c r="G66" s="9">
         <v>2.1638868000000001E-3</v>
       </c>
-      <c r="I66" s="47">
+      <c r="I66" s="40">
         <v>0.36041853797912854</v>
       </c>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21">
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20">
         <v>5.0099999999999998E-5</v>
       </c>
-      <c r="M66" s="27">
+      <c r="M66" s="26">
         <f>I66+D66</f>
         <v>3.2389133487791284</v>
       </c>
@@ -5859,7 +5844,7 @@
         <f>M66/D66</f>
         <v>1.1252107652328753</v>
       </c>
-      <c r="P66" s="78">
+      <c r="P66" s="69">
         <f>S66-M66</f>
         <v>1.5517898020871446E-2</v>
       </c>
@@ -5867,10 +5852,10 @@
         <f>S66/D66</f>
         <v>1.1306017417816774</v>
       </c>
-      <c r="R66" s="47">
+      <c r="R66" s="40">
         <v>3.2071843000000002</v>
       </c>
-      <c r="S66" s="77">
+      <c r="S66" s="68">
         <f>T66+U66+W66</f>
         <v>3.2544312467999998</v>
       </c>
@@ -5886,7 +5871,7 @@
       <c r="W66" s="9">
         <v>2.1694307999999998E-3</v>
       </c>
-      <c r="X66" s="47" t="s">
+      <c r="X66" s="40" t="s">
         <v>23</v>
       </c>
       <c r="Y66" s="9" t="s">
@@ -5894,7 +5879,7 @@
       </c>
     </row>
     <row r="67" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="107" t="s">
+      <c r="A67" s="98" t="s">
         <v>188</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -5903,7 +5888,7 @@
       <c r="C67" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="56">
+      <c r="D67" s="47">
         <f t="shared" si="55"/>
         <v>1.95610829248</v>
       </c>
@@ -5916,10 +5901,10 @@
       <c r="G67" s="9">
         <v>1.5918088000000001E-4</v>
       </c>
-      <c r="I67" s="47">
+      <c r="I67" s="40">
         <v>8.5879424869035395E-3</v>
       </c>
-      <c r="M67" s="27">
+      <c r="M67" s="26">
         <f t="shared" ref="M67" si="56">I67+D67</f>
         <v>1.9646962349669035</v>
       </c>
@@ -5927,7 +5912,7 @@
         <f t="shared" ref="O67" si="57">M67/D67</f>
         <v>1.0043903205767895</v>
       </c>
-      <c r="P67" s="78">
+      <c r="P67" s="69">
         <f t="shared" ref="P67" si="58">S67-M67</f>
         <v>1.1118626253096675E-2</v>
       </c>
@@ -5935,10 +5920,10 @@
         <f t="shared" ref="Q67" si="59">S67/D67</f>
         <v>1.0100743751334011</v>
       </c>
-      <c r="R67" s="47">
+      <c r="R67" s="40">
         <v>1.9730346999999999</v>
       </c>
-      <c r="S67" s="77">
+      <c r="S67" s="68">
         <f t="shared" ref="S67" si="60">T67+U67+W67</f>
         <v>1.9758148612200002</v>
       </c>
@@ -5954,416 +5939,416 @@
       <c r="W67" s="9">
         <v>1.5978882000000001E-4</v>
       </c>
-      <c r="X67" s="47"/>
-    </row>
-    <row r="68" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65" t="s">
+      <c r="X67" s="40"/>
+    </row>
+    <row r="68" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="66">
         <f t="shared" ref="D68" si="61">SUM(E68:G68)</f>
         <v>8.3936710404999994E-5</v>
       </c>
-      <c r="E68" s="65">
+      <c r="E68" s="56">
         <v>5.9118091000000005E-7</v>
       </c>
-      <c r="F68" s="65">
+      <c r="F68" s="56">
         <v>8.3315855999999993E-5</v>
       </c>
-      <c r="G68" s="76">
+      <c r="G68" s="67">
         <v>2.9673494999999999E-8</v>
       </c>
-      <c r="I68" s="62">
+      <c r="I68" s="53">
         <v>1.7981543521342812E-6</v>
       </c>
-      <c r="M68" s="39">
+      <c r="M68" s="33">
         <f t="shared" ref="M68" si="62">I68+D68</f>
         <v>8.573486475713427E-5</v>
       </c>
-      <c r="O68" s="57">
+      <c r="O68" s="48">
         <f t="shared" ref="O68" si="63">M68/D68</f>
         <v>1.0214227403415987</v>
       </c>
-      <c r="P68" s="86">
+      <c r="P68" s="77">
         <f t="shared" ref="P68" si="64">S68-M68</f>
         <v>1.0841959608657307E-6</v>
       </c>
-      <c r="Q68" s="57">
+      <c r="Q68" s="48">
         <f t="shared" ref="Q68" si="65">S68/D68</f>
         <v>1.0343395672655324</v>
       </c>
-      <c r="R68" s="62">
+      <c r="R68" s="53">
         <v>8.6410596000000012E-5</v>
       </c>
-      <c r="S68" s="76">
+      <c r="S68" s="67">
         <f t="shared" ref="S68" si="66">T68+U68+W68</f>
         <v>8.6819060718000001E-5</v>
       </c>
-      <c r="T68" s="65">
+      <c r="T68" s="56">
         <v>8.6173740999999997E-5</v>
       </c>
-      <c r="U68" s="65">
+      <c r="U68" s="56">
         <v>6.1547634000000001E-7</v>
       </c>
-      <c r="V68" s="65">
+      <c r="V68" s="56">
         <v>-4.0846504000000001E-7</v>
       </c>
-      <c r="W68" s="76">
+      <c r="W68" s="67">
         <v>2.9843377999999999E-8</v>
       </c>
-      <c r="X68" s="62"/>
-      <c r="Y68" s="65" t="s">
+      <c r="X68" s="53"/>
+      <c r="Y68" s="56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
+    <row r="69" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="33" t="str">
+      <c r="C69" s="27" t="str">
         <f>C68</f>
         <v>tkm Transport, freight, lorry &gt;32 metric ton, euro6 {RER}| market for transport, freight, lorry &gt;32 metric ton, EURO6 | APOS, S</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D69" s="28">
         <f>D68</f>
         <v>8.3936710404999994E-5</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="34" t="s">
+      <c r="F69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G69" s="34" t="s">
+      <c r="G69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="I69" s="34">
+      <c r="I69" s="28">
         <f>I68</f>
         <v>1.7981543521342812E-6</v>
       </c>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="34" t="s">
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="N69" s="34" t="s">
+      <c r="N69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O69" s="34" t="s">
+      <c r="O69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="P69" s="48">
+      <c r="P69" s="41">
         <f>P68</f>
         <v>1.0841959608657307E-6</v>
       </c>
-      <c r="Q69" s="34" t="s">
+      <c r="Q69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="R69" s="34" t="s">
+      <c r="R69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S69" s="34">
+      <c r="S69" s="28">
         <f>S68</f>
         <v>8.6819060718000001E-5</v>
       </c>
-      <c r="T69" s="34" t="s">
+      <c r="T69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="U69" s="34" t="s">
+      <c r="U69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="V69" s="34" t="s">
+      <c r="V69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="W69" s="34" t="s">
+      <c r="W69" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="X69" s="55"/>
-      <c r="Y69" s="33" t="s">
+      <c r="X69" s="46"/>
+      <c r="Y69" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="65" t="s">
+    <row r="70" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="65" t="s">
+      <c r="B70" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="65" t="s">
+      <c r="C70" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="75">
+      <c r="D70" s="66">
         <f t="shared" si="55"/>
         <v>1.5790532506999998E-4</v>
       </c>
-      <c r="E70" s="65">
+      <c r="E70" s="56">
         <v>1.305853E-6</v>
       </c>
-      <c r="F70" s="65">
+      <c r="F70" s="56">
         <v>1.5653603999999998E-4</v>
       </c>
-      <c r="G70" s="76">
+      <c r="G70" s="67">
         <v>6.3432069999999998E-8</v>
       </c>
-      <c r="I70" s="62">
+      <c r="I70" s="53">
         <v>3.1797766568152777E-6</v>
       </c>
-      <c r="M70" s="39">
+      <c r="M70" s="33">
         <f t="shared" ref="M70:M76" si="67">I70+D70</f>
         <v>1.6108510172681525E-4</v>
       </c>
-      <c r="O70" s="57">
+      <c r="O70" s="48">
         <f t="shared" ref="O70:O76" si="68">M70/D70</f>
         <v>1.020137235114811</v>
       </c>
-      <c r="P70" s="86">
+      <c r="P70" s="77">
         <f t="shared" ref="P70:P76" si="69">S70-M70</f>
         <v>2.0377640891847267E-6</v>
       </c>
-      <c r="Q70" s="57">
+      <c r="Q70" s="48">
         <f t="shared" ref="Q70:Q76" si="70">S70/D70</f>
         <v>1.0330422089545557</v>
       </c>
-      <c r="R70" s="62">
+      <c r="R70" s="53">
         <v>1.6222974999999999E-4</v>
       </c>
-      <c r="S70" s="76">
+      <c r="S70" s="67">
         <f t="shared" ref="S70:S76" si="71">T70+U70+W70</f>
         <v>1.6312286581599998E-4</v>
       </c>
-      <c r="T70" s="65">
+      <c r="T70" s="56">
         <v>1.6171116999999998E-4</v>
       </c>
-      <c r="U70" s="65">
+      <c r="U70" s="56">
         <v>1.3478234E-6</v>
       </c>
-      <c r="V70" s="65">
+      <c r="V70" s="56">
         <v>-8.9311093000000002E-7</v>
       </c>
-      <c r="W70" s="76">
+      <c r="W70" s="67">
         <v>6.3872416000000005E-8</v>
       </c>
-      <c r="X70" s="62"/>
-    </row>
-    <row r="71" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="65" t="s">
+      <c r="X70" s="53"/>
+    </row>
+    <row r="71" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="65" t="s">
+      <c r="B71" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="65" t="s">
+      <c r="C71" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="75">
+      <c r="D71" s="66">
         <f t="shared" si="55"/>
         <v>1.7852849396999999E-3</v>
       </c>
-      <c r="E71" s="65">
+      <c r="E71" s="56">
         <v>2.3297943E-5</v>
       </c>
-      <c r="F71" s="65">
+      <c r="F71" s="56">
         <v>1.7606811000000001E-3</v>
       </c>
-      <c r="G71" s="65">
+      <c r="G71" s="56">
         <v>1.3058967E-6</v>
       </c>
-      <c r="I71" s="62">
+      <c r="I71" s="53">
         <v>4.351832737876321E-5</v>
       </c>
-      <c r="M71" s="39">
+      <c r="M71" s="33">
         <f t="shared" si="67"/>
         <v>1.8288032670787631E-3</v>
       </c>
-      <c r="O71" s="57">
+      <c r="O71" s="48">
         <f t="shared" si="68"/>
         <v>1.0243761241754921</v>
       </c>
-      <c r="P71" s="86">
+      <c r="P71" s="77">
         <f t="shared" si="69"/>
         <v>1.9331584721236743E-5</v>
       </c>
-      <c r="Q71" s="57">
+      <c r="Q71" s="48">
         <f t="shared" si="70"/>
         <v>1.0352044151061741</v>
       </c>
-      <c r="R71" s="62">
+      <c r="R71" s="53">
         <v>1.8333239999999999E-3</v>
       </c>
-      <c r="S71" s="76">
+      <c r="S71" s="67">
         <f t="shared" si="71"/>
         <v>1.8481348517999999E-3</v>
       </c>
-      <c r="T71" s="65">
+      <c r="T71" s="56">
         <v>1.8222988E-3</v>
       </c>
-      <c r="U71" s="65">
+      <c r="U71" s="56">
         <v>2.4521234999999997E-5</v>
       </c>
-      <c r="V71" s="65">
+      <c r="V71" s="56">
         <v>-1.4810874999999999E-5</v>
       </c>
-      <c r="W71" s="65">
+      <c r="W71" s="56">
         <v>1.3148168000000001E-6</v>
       </c>
-      <c r="X71" s="62"/>
-    </row>
-    <row r="72" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="65" t="s">
+      <c r="X71" s="53"/>
+    </row>
+    <row r="72" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="65" t="s">
+      <c r="C72" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="75">
+      <c r="D72" s="66">
         <f t="shared" si="55"/>
         <v>4.5014272126999997E-5</v>
       </c>
-      <c r="E72" s="65">
+      <c r="E72" s="56">
         <v>2.1186845000000002E-6</v>
       </c>
-      <c r="F72" s="65">
+      <c r="F72" s="56">
         <v>4.2832742000000002E-5</v>
       </c>
-      <c r="G72" s="76">
+      <c r="G72" s="67">
         <v>6.2845627000000003E-8</v>
       </c>
-      <c r="I72" s="62">
+      <c r="I72" s="53">
         <v>1.8406587156070322E-6</v>
       </c>
-      <c r="J72" s="63">
+      <c r="J72" s="54">
         <v>1.86E-6</v>
       </c>
-      <c r="K72" s="63"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="39">
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="33">
         <f t="shared" si="67"/>
         <v>4.685493084260703E-5</v>
       </c>
-      <c r="O72" s="57">
+      <c r="O72" s="48">
         <f t="shared" si="68"/>
         <v>1.0408905582303749</v>
       </c>
-      <c r="P72" s="95">
+      <c r="P72" s="86">
         <f t="shared" si="69"/>
         <v>4.5037910139296173E-7</v>
       </c>
-      <c r="Q72" s="57">
+      <c r="Q72" s="48">
         <f t="shared" si="70"/>
         <v>1.0508958094565259</v>
       </c>
-      <c r="R72" s="62">
+      <c r="R72" s="53">
         <v>4.6149522999999999E-5</v>
       </c>
-      <c r="S72" s="76">
+      <c r="S72" s="67">
         <f t="shared" si="71"/>
         <v>4.7305309943999992E-5</v>
       </c>
-      <c r="T72" s="65">
+      <c r="T72" s="56">
         <v>4.5073507999999997E-5</v>
       </c>
-      <c r="U72" s="65">
+      <c r="U72" s="56">
         <v>2.1686918999999999E-6</v>
       </c>
-      <c r="V72" s="65">
+      <c r="V72" s="56">
         <v>-1.1557869999999999E-6</v>
       </c>
-      <c r="W72" s="76">
+      <c r="W72" s="67">
         <v>6.3110044000000001E-8</v>
       </c>
-      <c r="X72" s="62"/>
-    </row>
-    <row r="73" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="65" t="s">
+      <c r="X72" s="53"/>
+    </row>
+    <row r="73" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="65" t="s">
+      <c r="B73" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="65" t="s">
+      <c r="C73" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="75">
+      <c r="D73" s="66">
         <f t="shared" si="55"/>
         <v>5.1112977911999995E-5</v>
       </c>
-      <c r="E73" s="76">
+      <c r="E73" s="67">
         <v>6.3074487000000006E-8</v>
       </c>
-      <c r="F73" s="65">
+      <c r="F73" s="56">
         <v>5.1040769999999999E-5</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G73" s="67">
         <v>9.1334249999999996E-9</v>
       </c>
-      <c r="H73" s="76"/>
-      <c r="I73" s="62">
+      <c r="H73" s="67"/>
+      <c r="I73" s="53">
         <v>5.9164862768251971E-6</v>
       </c>
-      <c r="J73" s="64">
+      <c r="J73" s="55">
         <f>0.000000000000226+0.00000577</f>
         <v>5.7700002259999996E-6</v>
       </c>
-      <c r="K73" s="64">
+      <c r="K73" s="55">
         <v>4.0400000000000001E-9</v>
       </c>
-      <c r="L73" s="64">
+      <c r="L73" s="55">
         <v>1.26E-10</v>
       </c>
-      <c r="M73" s="39">
+      <c r="M73" s="33">
         <f t="shared" si="67"/>
         <v>5.7029464188825194E-5</v>
       </c>
-      <c r="N73" s="59"/>
-      <c r="O73" s="57">
+      <c r="N73" s="50"/>
+      <c r="O73" s="48">
         <f t="shared" si="68"/>
         <v>1.1157531123898019</v>
       </c>
-      <c r="P73" s="95">
+      <c r="P73" s="86">
         <f t="shared" si="69"/>
         <v>2.4703370257480163E-7</v>
       </c>
-      <c r="Q73" s="57">
+      <c r="Q73" s="48">
         <f t="shared" si="70"/>
         <v>1.1205862039580552</v>
       </c>
-      <c r="R73" s="62">
+      <c r="R73" s="53">
         <v>5.7219885999999999E-5</v>
       </c>
-      <c r="S73" s="76">
+      <c r="S73" s="67">
         <f t="shared" si="71"/>
         <v>5.7276497891399996E-5</v>
       </c>
-      <c r="T73" s="65">
+      <c r="T73" s="56">
         <v>5.7186109999999999E-5</v>
       </c>
-      <c r="U73" s="76">
+      <c r="U73" s="67">
         <v>8.1182822000000009E-8</v>
       </c>
-      <c r="V73" s="76">
+      <c r="V73" s="67">
         <v>-5.6611224999999999E-8</v>
       </c>
-      <c r="W73" s="76">
+      <c r="W73" s="67">
         <v>9.2050693999999993E-9</v>
       </c>
-      <c r="X73" s="62" t="s">
+      <c r="X73" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Y73" s="65" t="s">
+      <c r="Y73" s="56" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6377,34 +6362,34 @@
       <c r="C74" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D74" s="56">
+      <c r="D74" s="47">
         <f t="shared" si="55"/>
         <v>5.0876384901000007E-5</v>
       </c>
-      <c r="E74" s="77">
+      <c r="E74" s="68">
         <v>7.1889028999999989E-8</v>
       </c>
       <c r="F74" s="9">
         <v>5.0793082000000004E-5</v>
       </c>
-      <c r="G74" s="77">
+      <c r="G74" s="68">
         <v>1.1413871999999999E-8</v>
       </c>
-      <c r="H74" s="77"/>
-      <c r="I74" s="47">
+      <c r="H74" s="68"/>
+      <c r="I74" s="40">
         <v>5.9242416042312016E-6</v>
       </c>
-      <c r="J74" s="79">
+      <c r="J74" s="70">
         <f>0.000000000000226+0.00000577</f>
         <v>5.7700002259999996E-6</v>
       </c>
-      <c r="K74" s="79">
+      <c r="K74" s="70">
         <v>4.0400000000000001E-9</v>
       </c>
-      <c r="L74" s="79">
+      <c r="L74" s="70">
         <v>1.26E-10</v>
       </c>
-      <c r="M74" s="27">
+      <c r="M74" s="26">
         <f t="shared" si="67"/>
         <v>5.680062650523121E-5</v>
       </c>
@@ -6413,7 +6398,7 @@
         <f t="shared" si="68"/>
         <v>1.1164438396273466</v>
       </c>
-      <c r="P74" s="96">
+      <c r="P74" s="87">
         <f t="shared" si="69"/>
         <v>2.4278714276878042E-7</v>
       </c>
@@ -6421,26 +6406,26 @@
         <f t="shared" si="70"/>
         <v>1.121215938573473</v>
       </c>
-      <c r="R74" s="47">
+      <c r="R74" s="40">
         <v>5.6974018000000003E-5</v>
       </c>
-      <c r="S74" s="77">
+      <c r="S74" s="68">
         <f t="shared" si="71"/>
         <v>5.704341364799999E-5</v>
       </c>
       <c r="T74" s="9">
         <v>5.6953077999999995E-5</v>
       </c>
-      <c r="U74" s="77">
+      <c r="U74" s="68">
         <v>7.8831282999999994E-8</v>
       </c>
-      <c r="V74" s="77">
+      <c r="V74" s="68">
         <v>-6.9395850000000007E-8</v>
       </c>
-      <c r="W74" s="77">
+      <c r="W74" s="68">
         <v>1.1504365000000001E-8</v>
       </c>
-      <c r="X74" s="47" t="s">
+      <c r="X74" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -6457,27 +6442,27 @@
       <c r="C75" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="56">
+      <c r="D75" s="47">
         <f t="shared" si="55"/>
         <v>5.2563391955999996E-5</v>
       </c>
-      <c r="E75" s="77">
+      <c r="E75" s="68">
         <v>7.9792908000000002E-8</v>
       </c>
       <c r="F75" s="9">
         <v>5.2473403E-5</v>
       </c>
-      <c r="G75" s="77">
+      <c r="G75" s="68">
         <v>1.0196048E-8</v>
       </c>
-      <c r="H75" s="77"/>
-      <c r="I75" s="47">
+      <c r="H75" s="68"/>
+      <c r="I75" s="40">
         <v>9.32003549950139E-6</v>
       </c>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="27">
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="26">
         <f t="shared" si="67"/>
         <v>6.1883427455501391E-5</v>
       </c>
@@ -6486,7 +6471,7 @@
         <f t="shared" si="68"/>
         <v>1.1773103894684547</v>
       </c>
-      <c r="P75" s="96">
+      <c r="P75" s="87">
         <f t="shared" si="69"/>
         <v>2.5967736449859649E-7</v>
       </c>
@@ -6494,10 +6479,10 @@
         <f t="shared" si="70"/>
         <v>1.1822506597751343</v>
       </c>
-      <c r="R75" s="47">
+      <c r="R75" s="40">
         <v>6.2076117E-5</v>
       </c>
-      <c r="S75" s="77">
+      <c r="S75" s="68">
         <f t="shared" si="71"/>
         <v>6.2143104819999988E-5</v>
       </c>
@@ -6507,415 +6492,415 @@
       <c r="U75" s="9">
         <v>1.0278919999999999E-7</v>
       </c>
-      <c r="V75" s="77">
+      <c r="V75" s="68">
         <v>-6.6988461000000009E-8</v>
       </c>
-      <c r="W75" s="77">
+      <c r="W75" s="68">
         <v>1.0273620000000001E-8</v>
       </c>
-      <c r="X75" s="47"/>
-    </row>
-    <row r="76" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="65" t="s">
+      <c r="X75" s="40"/>
+    </row>
+    <row r="76" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="65" t="s">
+      <c r="C76" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="75">
+      <c r="D76" s="66">
         <f t="shared" si="55"/>
         <v>3.4113084290999997E-4</v>
       </c>
-      <c r="E76" s="76">
+      <c r="E76" s="67">
         <v>2.7803995E-5</v>
       </c>
-      <c r="F76" s="65">
+      <c r="F76" s="56">
         <v>3.1270264999999999E-4</v>
       </c>
-      <c r="G76" s="76">
+      <c r="G76" s="67">
         <v>6.2419791000000003E-7</v>
       </c>
-      <c r="I76" s="62">
+      <c r="I76" s="53">
         <v>2.0486484113120651E-5</v>
       </c>
-      <c r="M76" s="39">
+      <c r="M76" s="33">
         <f t="shared" si="67"/>
         <v>3.6161732702312061E-4</v>
       </c>
-      <c r="O76" s="57">
+      <c r="O76" s="48">
         <f t="shared" si="68"/>
         <v>1.0600546228489975</v>
       </c>
-      <c r="P76" s="86">
+      <c r="P76" s="77">
         <f t="shared" si="69"/>
         <v>4.6117466368794527E-6</v>
       </c>
-      <c r="Q76" s="57">
+      <c r="Q76" s="48">
         <f t="shared" si="70"/>
         <v>1.0735736192479719</v>
       </c>
-      <c r="R76" s="62">
+      <c r="R76" s="53">
         <v>3.5351095000000002E-4</v>
       </c>
-      <c r="S76" s="76">
+      <c r="S76" s="67">
         <f t="shared" si="71"/>
         <v>3.6622907366000006E-4</v>
       </c>
-      <c r="T76" s="65">
+      <c r="T76" s="56">
         <v>3.3717684000000002E-4</v>
       </c>
-      <c r="U76" s="76">
+      <c r="U76" s="67">
         <v>2.8426174000000001E-5</v>
       </c>
-      <c r="V76" s="76">
+      <c r="V76" s="67">
         <v>-1.2718124E-5</v>
       </c>
-      <c r="W76" s="76">
+      <c r="W76" s="67">
         <v>6.2605966000000002E-7</v>
       </c>
-      <c r="X76" s="62"/>
-    </row>
-    <row r="77" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="65" t="s">
+      <c r="X76" s="53"/>
+    </row>
+    <row r="77" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="65" t="s">
+      <c r="B77" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="65" t="s">
+      <c r="C77" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="D77" s="75">
+      <c r="D77" s="66">
         <f t="shared" ref="D77" si="72">SUM(E77:G77)</f>
         <v>3.4113084290999997E-4</v>
       </c>
-      <c r="E77" s="76">
+      <c r="E77" s="67">
         <v>2.7803995E-5</v>
       </c>
-      <c r="F77" s="65">
+      <c r="F77" s="56">
         <v>3.1270264999999999E-4</v>
       </c>
-      <c r="G77" s="76">
+      <c r="G77" s="67">
         <v>6.2419791000000003E-7</v>
       </c>
-      <c r="I77" s="62">
+      <c r="I77" s="53">
         <v>2.0486484113120651E-5</v>
       </c>
-      <c r="M77" s="39">
+      <c r="M77" s="33">
         <f t="shared" ref="M77" si="73">I77+D77</f>
         <v>3.6161732702312061E-4</v>
       </c>
-      <c r="O77" s="57">
+      <c r="O77" s="48">
         <f t="shared" ref="O77" si="74">M77/D77</f>
         <v>1.0600546228489975</v>
       </c>
-      <c r="P77" s="86">
+      <c r="P77" s="77">
         <f t="shared" ref="P77" si="75">S77-M77</f>
         <v>4.6117466368794527E-6</v>
       </c>
-      <c r="Q77" s="57">
+      <c r="Q77" s="48">
         <f t="shared" ref="Q77" si="76">S77/D77</f>
         <v>1.0735736192479719</v>
       </c>
-      <c r="R77" s="62">
+      <c r="R77" s="53">
         <v>3.5351095000000002E-4</v>
       </c>
-      <c r="S77" s="76">
+      <c r="S77" s="67">
         <f t="shared" ref="S77" si="77">T77+U77+W77</f>
         <v>3.6622907366000006E-4</v>
       </c>
-      <c r="T77" s="65">
+      <c r="T77" s="56">
         <v>3.3717684000000002E-4</v>
       </c>
-      <c r="U77" s="76">
+      <c r="U77" s="67">
         <v>2.8426174000000001E-5</v>
       </c>
-      <c r="V77" s="76">
+      <c r="V77" s="67">
         <v>-1.2718124E-5</v>
       </c>
-      <c r="W77" s="76">
+      <c r="W77" s="67">
         <v>6.2605966000000002E-7</v>
       </c>
-      <c r="X77" s="62"/>
-    </row>
-    <row r="78" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="65" t="s">
+      <c r="X77" s="53"/>
+    </row>
+    <row r="78" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="65" t="s">
+      <c r="B78" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="75">
+      <c r="D78" s="66">
         <f t="shared" ref="D78" si="78">SUM(E78:G78)</f>
         <v>7.9134005975000001E-3</v>
       </c>
-      <c r="E78" s="76">
+      <c r="E78" s="67">
         <v>9.1364933E-5</v>
       </c>
-      <c r="F78" s="65">
+      <c r="F78" s="56">
         <v>7.8185982000000005E-3</v>
       </c>
-      <c r="G78" s="76">
+      <c r="G78" s="67">
         <v>3.4374645000000001E-6</v>
       </c>
-      <c r="I78" s="62">
+      <c r="I78" s="53">
         <v>2.916013227386843E-4</v>
       </c>
-      <c r="M78" s="39">
+      <c r="M78" s="33">
         <f t="shared" ref="M78" si="79">I78+D78</f>
         <v>8.2050019202386838E-3</v>
       </c>
-      <c r="O78" s="57">
+      <c r="O78" s="48">
         <f t="shared" ref="O78" si="80">M78/D78</f>
         <v>1.0368490535953414</v>
       </c>
-      <c r="P78" s="86">
+      <c r="P78" s="77">
         <f t="shared" ref="P78" si="81">S78-M78</f>
         <v>6.6614515761315163E-5</v>
       </c>
-      <c r="Q78" s="57">
+      <c r="Q78" s="48">
         <f t="shared" ref="Q78" si="82">S78/D78</f>
         <v>1.0452669916158632</v>
       </c>
-      <c r="R78" s="62">
+      <c r="R78" s="53">
         <v>8.2087042999999995E-3</v>
       </c>
-      <c r="S78" s="75">
+      <c r="S78" s="66">
         <f t="shared" ref="S78" si="83">T78+U78+W78</f>
         <v>8.271616435999999E-3</v>
       </c>
-      <c r="T78" s="65">
+      <c r="T78" s="56">
         <v>8.1730022999999992E-3</v>
       </c>
-      <c r="U78" s="76">
+      <c r="U78" s="67">
         <v>9.5159898000000005E-5</v>
       </c>
-      <c r="V78" s="76">
+      <c r="V78" s="67">
         <v>-6.2912113000000006E-5</v>
       </c>
-      <c r="W78" s="76">
+      <c r="W78" s="67">
         <v>3.4542380000000001E-6</v>
       </c>
-      <c r="X78" s="62"/>
-    </row>
-    <row r="79" spans="1:25" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="65" t="s">
+      <c r="X78" s="53"/>
+    </row>
+    <row r="79" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="65" t="s">
+      <c r="C79" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="75">
+      <c r="D79" s="66">
         <f t="shared" ref="D79" si="84">SUM(E79:G79)</f>
         <v>0.69561973800999999</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="56">
         <v>0.57940795</v>
       </c>
-      <c r="F79" s="65">
+      <c r="F79" s="56">
         <v>0.11526023000000001</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G79" s="56">
         <v>9.5155800999999999E-4</v>
       </c>
-      <c r="I79" s="62">
+      <c r="I79" s="53">
         <v>7.0743564930269799E-3</v>
       </c>
-      <c r="M79" s="39">
+      <c r="M79" s="33">
         <f>I79+D79</f>
         <v>0.702694094503027</v>
       </c>
-      <c r="O79" s="57">
+      <c r="O79" s="48">
         <f t="shared" ref="O79:O81" si="85">M79/D79</f>
         <v>1.0101698616449053</v>
       </c>
-      <c r="P79" s="86">
+      <c r="P79" s="77">
         <f t="shared" ref="P79" si="86">S79-M79</f>
         <v>6.6567367569730918E-3</v>
       </c>
-      <c r="Q79" s="57">
+      <c r="Q79" s="48">
         <f t="shared" ref="Q79:Q81" si="87">S79/D79</f>
         <v>1.0197393669266508</v>
       </c>
-      <c r="R79" s="62">
+      <c r="R79" s="53">
         <v>-0.34118639000000001</v>
       </c>
-      <c r="S79" s="76">
+      <c r="S79" s="67">
         <f t="shared" ref="S79" si="88">T79+U79+W79</f>
         <v>0.70935083126000009</v>
       </c>
-      <c r="T79" s="65">
+      <c r="T79" s="56">
         <v>0.12821587000000001</v>
       </c>
-      <c r="U79" s="65">
+      <c r="U79" s="56">
         <v>0.58017492000000004</v>
       </c>
-      <c r="V79" s="65">
+      <c r="V79" s="56">
         <v>-1.0505371999999999</v>
       </c>
-      <c r="W79" s="65">
+      <c r="W79" s="56">
         <v>9.6004125999999996E-4</v>
       </c>
-      <c r="X79" s="62"/>
-    </row>
-    <row r="80" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
+      <c r="X79" s="53"/>
+    </row>
+    <row r="80" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="34">
+      <c r="D80" s="28">
         <f>SUM(E80:G80)</f>
         <v>0.14927794999999996</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E80" s="27">
         <f>0.57940795-0.549</f>
         <v>3.0407949999999961E-2</v>
       </c>
-      <c r="F80" s="33">
+      <c r="F80" s="27">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G80" s="33">
+      <c r="G80" s="27">
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="I80" s="55">
+      <c r="I80" s="46">
         <f t="shared" ref="I80:I81" si="89">SUM(J80:L80)</f>
         <v>7.6210100000000001E-3</v>
       </c>
-      <c r="J80" s="67">
+      <c r="J80" s="58">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="K80" s="67">
+      <c r="K80" s="58">
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="L80" s="68">
+      <c r="L80" s="59">
         <v>7.0099999999999998E-6</v>
       </c>
-      <c r="M80" s="97">
+      <c r="M80" s="88">
         <f t="shared" ref="M80:M81" si="90">I80+D80</f>
         <v>0.15689895999999998</v>
       </c>
-      <c r="O80" s="69">
+      <c r="O80" s="60">
         <f t="shared" si="85"/>
         <v>1.0510524829688512</v>
       </c>
-      <c r="P80" s="48">
+      <c r="P80" s="41">
         <f t="shared" ref="P80:P81" si="91">S80-M80</f>
         <v>3.4518712600000168E-3</v>
       </c>
-      <c r="Q80" s="69">
+      <c r="Q80" s="60">
         <f t="shared" si="87"/>
         <v>1.0741762682298359</v>
       </c>
-      <c r="R80" s="55">
+      <c r="R80" s="46">
         <v>-0.34118639000000001</v>
       </c>
-      <c r="S80" s="58">
+      <c r="S80" s="49">
         <f t="shared" ref="S80:S81" si="92">T80+U80+W80</f>
         <v>0.16035083125999999</v>
       </c>
-      <c r="T80" s="33">
+      <c r="T80" s="27">
         <v>0.12821587000000001</v>
       </c>
-      <c r="U80" s="33">
+      <c r="U80" s="27">
         <f>0.58017492-0.549</f>
         <v>3.1174919999999995E-2</v>
       </c>
-      <c r="V80" s="33">
+      <c r="V80" s="27">
         <v>-1.0505371999999999</v>
       </c>
-      <c r="W80" s="33">
+      <c r="W80" s="27">
         <v>9.6004125999999996E-4</v>
       </c>
-      <c r="X80" s="55"/>
-    </row>
-    <row r="81" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="33" t="s">
+      <c r="X80" s="46"/>
+    </row>
+    <row r="81" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D81" s="34">
+      <c r="D81" s="28">
         <f>SUM(E81:G81)</f>
         <v>0.14927794999999996</v>
       </c>
-      <c r="E81" s="33">
+      <c r="E81" s="27">
         <f>0.57940795-0.549</f>
         <v>3.0407949999999961E-2</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="27">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G81" s="33">
+      <c r="G81" s="27">
         <v>8.7000000000000001E-4</v>
       </c>
-      <c r="I81" s="55">
+      <c r="I81" s="46">
         <f t="shared" si="89"/>
         <v>7.6210100000000001E-3</v>
       </c>
-      <c r="J81" s="67">
+      <c r="J81" s="58">
         <v>6.9199999999999999E-3</v>
       </c>
-      <c r="K81" s="67">
+      <c r="K81" s="58">
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="L81" s="68">
+      <c r="L81" s="59">
         <v>7.0099999999999998E-6</v>
       </c>
-      <c r="M81" s="97">
+      <c r="M81" s="88">
         <f t="shared" si="90"/>
         <v>0.15689895999999998</v>
       </c>
-      <c r="O81" s="69">
+      <c r="O81" s="60">
         <f t="shared" si="85"/>
         <v>1.0510524829688512</v>
       </c>
-      <c r="P81" s="48">
+      <c r="P81" s="41">
         <f t="shared" si="91"/>
         <v>3.4518712600000168E-3</v>
       </c>
-      <c r="Q81" s="69">
+      <c r="Q81" s="60">
         <f t="shared" si="87"/>
         <v>1.0741762682298359</v>
       </c>
-      <c r="R81" s="55">
+      <c r="R81" s="46">
         <v>-0.34118639000000001</v>
       </c>
-      <c r="S81" s="58">
+      <c r="S81" s="49">
         <f t="shared" si="92"/>
         <v>0.16035083125999999</v>
       </c>
-      <c r="T81" s="33">
+      <c r="T81" s="27">
         <v>0.12821587000000001</v>
       </c>
-      <c r="U81" s="33">
+      <c r="U81" s="27">
         <f>0.58017492-0.549</f>
         <v>3.1174919999999995E-2</v>
       </c>
-      <c r="V81" s="33">
+      <c r="V81" s="27">
         <v>-1.0505371999999999</v>
       </c>
-      <c r="W81" s="33">
+      <c r="W81" s="27">
         <v>9.6004125999999996E-4</v>
       </c>
-      <c r="X81" s="55" t="s">
+      <c r="X81" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6929,7 +6914,7 @@
       <c r="C82" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="56">
+      <c r="D82" s="47">
         <f>SUM(E82:G82)</f>
         <v>1.2168654921000002</v>
       </c>
@@ -6942,12 +6927,12 @@
       <c r="G82" s="9">
         <v>2.6007371000000001E-3</v>
       </c>
-      <c r="I82" s="47">
+      <c r="I82" s="40">
         <v>0.10422085878886719</v>
       </c>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
       <c r="M82" s="5">
         <f>SUM(E82:L82)</f>
         <v>1.3210863508888673</v>
@@ -6957,7 +6942,7 @@
         <f>M82/D82</f>
         <v>1.0856469835536289</v>
       </c>
-      <c r="P82" s="78">
+      <c r="P82" s="69">
         <f>S82-M82</f>
         <v>1.588572411113276E-2</v>
       </c>
@@ -6965,10 +6950,10 @@
         <f>S82/D82</f>
         <v>1.0987016097339786</v>
       </c>
-      <c r="R82" s="47">
+      <c r="R82" s="40">
         <v>1.2963118</v>
       </c>
-      <c r="S82" s="77">
+      <c r="S82" s="68">
         <f>T82+U82+W82</f>
         <v>1.336972075</v>
       </c>
@@ -6984,7 +6969,7 @@
       <c r="W82" s="9">
         <v>2.6065189999999998E-3</v>
       </c>
-      <c r="X82" s="47"/>
+      <c r="X82" s="40"/>
     </row>
     <row r="83" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
@@ -6996,7 +6981,7 @@
       <c r="C83" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="56">
+      <c r="D83" s="47">
         <f>SUM(E83:G83)</f>
         <v>1.2354728865300001E-3</v>
       </c>
@@ -7009,12 +6994,12 @@
       <c r="G83" s="9">
         <v>1.3642413E-7</v>
       </c>
-      <c r="I83" s="47">
+      <c r="I83" s="40">
         <v>0.10422085878886719</v>
       </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
       <c r="M83" s="9">
         <v>1.9051718306049167E-5</v>
       </c>
@@ -7022,7 +7007,7 @@
         <f>M83/D83</f>
         <v>1.5420587949573386E-2</v>
       </c>
-      <c r="P83" s="78">
+      <c r="P83" s="69">
         <f>S83-M83</f>
         <v>1.2509274640139509E-3</v>
       </c>
@@ -7030,10 +7015,10 @@
         <f>S83/D83</f>
         <v>1.0279296261101414</v>
       </c>
-      <c r="R83" s="47">
+      <c r="R83" s="40">
         <v>1.2682554E-3</v>
       </c>
-      <c r="S83" s="77">
+      <c r="S83" s="68">
         <f>T83+U83+W83</f>
         <v>1.2699791823200001E-3</v>
       </c>
@@ -7049,10 +7034,10 @@
       <c r="W83" s="9">
         <v>1.3726411999999999E-7</v>
       </c>
-      <c r="X83" s="47"/>
+      <c r="X83" s="40"/>
     </row>
     <row r="84" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="97" t="s">
         <v>190</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -7061,7 +7046,7 @@
       <c r="C84" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="56">
+      <c r="D84" s="47">
         <f t="shared" ref="D84" si="93">SUM(E84:G84)</f>
         <v>9.8709884010000012E-3</v>
       </c>
@@ -7071,13 +7056,13 @@
       <c r="F84" s="9">
         <v>9.7112545000000005E-3</v>
       </c>
-      <c r="G84" s="77">
+      <c r="G84" s="68">
         <v>5.7938509999999998E-6</v>
       </c>
-      <c r="I84" s="47">
+      <c r="I84" s="40">
         <v>5.3380638539262033E-4</v>
       </c>
-      <c r="M84" s="27">
+      <c r="M84" s="26">
         <f t="shared" ref="M84" si="94">I84+D84</f>
         <v>1.0404794786392621E-2</v>
       </c>
@@ -7085,7 +7070,7 @@
         <f t="shared" ref="O84" si="95">M84/D84</f>
         <v>1.0540783114828238</v>
       </c>
-      <c r="P84" s="78">
+      <c r="P84" s="69">
         <f t="shared" ref="P84" si="96">S84-M84</f>
         <v>9.3103690907378814E-5</v>
       </c>
@@ -7093,10 +7078,10 @@
         <f t="shared" ref="Q84" si="97">S84/D84</f>
         <v>1.0635103650042268</v>
       </c>
-      <c r="R84" s="47">
+      <c r="R84" s="40">
         <v>1.0400002E-2</v>
       </c>
-      <c r="S84" s="77">
+      <c r="S84" s="68">
         <f t="shared" ref="S84" si="98">T84+U84+W84</f>
         <v>1.04978984773E-2</v>
       </c>
@@ -7106,87 +7091,87 @@
       <c r="U84" s="9">
         <v>1.8758963E-4</v>
       </c>
-      <c r="V84" s="77">
+      <c r="V84" s="68">
         <v>-9.7897339999999998E-5</v>
       </c>
-      <c r="W84" s="77">
+      <c r="W84" s="68">
         <v>5.8128472999999997E-6</v>
       </c>
-      <c r="X84" s="47"/>
-    </row>
-    <row r="85" spans="1:24" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="33" t="s">
+      <c r="X84" s="40"/>
+    </row>
+    <row r="85" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="33" t="str">
+      <c r="C85" s="27" t="str">
         <f>C84</f>
         <v>Inert waste {Europe without Switzerland}| treatment of inert waste, sanitary landfill | APOS, S</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="27">
         <f>D84</f>
         <v>9.8709884010000012E-3</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F85" s="34" t="s">
+      <c r="F85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="G85" s="34" t="s">
+      <c r="G85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="H85" s="72"/>
-      <c r="I85" s="55">
+      <c r="H85" s="63"/>
+      <c r="I85" s="46">
         <f>I84</f>
         <v>5.3380638539262033E-4</v>
       </c>
-      <c r="J85" s="67"/>
-      <c r="K85" s="68"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="34" t="s">
+      <c r="J85" s="58"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="N85" s="34" t="s">
+      <c r="N85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="O85" s="34" t="s">
+      <c r="O85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="P85" s="55">
+      <c r="P85" s="46">
         <f>P84</f>
         <v>9.3103690907378814E-5</v>
       </c>
-      <c r="Q85" s="34" t="s">
+      <c r="Q85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="R85" s="34" t="s">
+      <c r="R85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="S85" s="33">
+      <c r="S85" s="27">
         <f>S84</f>
         <v>1.04978984773E-2</v>
       </c>
-      <c r="T85" s="34" t="s">
+      <c r="T85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="U85" s="34" t="s">
+      <c r="U85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="V85" s="34" t="s">
+      <c r="V85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="W85" s="34" t="s">
+      <c r="W85" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="X85" s="55" t="s">
+      <c r="X85" s="46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="106" t="s">
+      <c r="A86" s="97" t="s">
         <v>189</v>
       </c>
       <c r="B86" t="s">
@@ -7195,7 +7180,7 @@
       <c r="C86" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="21">
         <f t="shared" ref="D86" si="99">SUM(E86:G86)</f>
         <v>3.3242683103999998E-4</v>
       </c>
@@ -7215,7 +7200,7 @@
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
-      <c r="M86" s="26">
+      <c r="M86" s="25">
         <f t="shared" ref="M86" si="100">I86+D86</f>
         <v>3.4731712611983044E-4</v>
       </c>
@@ -7224,7 +7209,7 @@
         <f t="shared" ref="O86" si="101">M86/D86</f>
         <v>1.0447926992933936</v>
       </c>
-      <c r="P86" s="50">
+      <c r="P86" s="42">
         <f t="shared" ref="P86" si="102">S86-M86</f>
         <v>4.2638616401695427E-6</v>
       </c>
@@ -7232,10 +7217,10 @@
         <f t="shared" ref="Q86" si="103">S86/D86</f>
         <v>1.0576191658780252</v>
       </c>
-      <c r="R86" s="101">
+      <c r="R86" s="92">
         <v>3.4619028000000004E-4</v>
       </c>
-      <c r="S86" s="23">
+      <c r="S86" s="22">
         <f t="shared" ref="S86" si="104">T86+U86+W86</f>
         <v>3.5158098775999998E-4</v>
       </c>
